--- a/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_train.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_train.xlsx
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9966C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA1F0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9965E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA180&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9AF0&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9969D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9B60&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9C40&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9CB0&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996C00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9D20&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996DC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9D90&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9973E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9E00&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9974C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9E70&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9975A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9EE0&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9F50&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9977D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9FC0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA030&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA0A0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9A80&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994EB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA2D0&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9947B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA260&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9BD0&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA730&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9954D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA110&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995690&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA5E0&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA6C0&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA340&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA3B0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA7A0&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9953F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA420&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9959A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA490&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995700&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA500&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA570&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA650&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA810&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA880&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA8F0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA960&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA9D0&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAA40&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAAB0&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9961F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAB20&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9962D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAB90&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAC00&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAC70&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AACE0&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9967A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAD50&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AADC0&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAE30&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996EA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAEA0&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAF10&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E996FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAF80&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9970D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAFF0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9971B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB060&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB0D0&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB140&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB1B0&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4302,7 +4302,7 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B47B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB220&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4396,7 +4396,7 @@
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB290&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4490,7 +4490,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB300&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4558,7 +4558,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA338F680&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4626,7 +4626,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA338F760&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4694,7 +4694,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA338FCA0&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4762,7 +4762,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9978B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3358510&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4830,7 +4830,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995150&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8190&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4898,7 +4898,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8200&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4966,7 +4966,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8430&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -5034,7 +5034,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9770&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -5102,7 +5102,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9850&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5170,7 +5170,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8BA0&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5238,7 +5238,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9230&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5306,7 +5306,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A84A0&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5374,7 +5374,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9946D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8040&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5442,7 +5442,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E997F40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB370&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5510,7 +5510,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9957E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB5A0&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5578,7 +5578,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9958C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB610&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5646,7 +5646,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB760&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5714,7 +5714,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABA00&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5782,7 +5782,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E995D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABAE0&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5850,7 +5850,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9960A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABC30&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5918,7 +5918,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABD10&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5986,7 +5986,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9963B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABED0&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -6054,7 +6054,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E994F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABF40&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6122,7 +6122,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E977E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A82E0&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6190,7 +6190,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E974270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A87B0&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6258,7 +6258,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9745F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8580&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6326,7 +6326,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9743C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8270&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6394,7 +6394,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4DD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB3E0&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6462,7 +6462,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB530&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6530,7 +6530,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB8B0&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6598,7 +6598,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8120&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6666,7 +6666,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8350&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6734,7 +6734,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6F10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8740&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6802,7 +6802,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9460&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6870,7 +6870,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8900&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6938,7 +6938,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B73E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A86D0&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -7006,7 +7006,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B74C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8660&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -7074,7 +7074,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8510&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7142,7 +7142,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A83C0&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7210,7 +7210,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B59A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB450&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7278,7 +7278,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B75A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB6F0&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7346,7 +7346,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B49E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB7D0&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7414,7 +7414,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB840&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7482,7 +7482,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB920&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7550,7 +7550,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4D60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB990&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7618,7 +7618,7 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABA70&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7686,7 +7686,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABB50&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7754,7 +7754,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABBC0&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7822,7 +7822,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABD80&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7890,7 +7890,7 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABDF0&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7958,7 +7958,7 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABE60&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -8026,7 +8026,7 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B63B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A85F0&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -8094,7 +8094,7 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B67A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8970&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8162,7 +8162,7 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6FF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8890&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8230,7 +8230,7 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB4C0&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -8298,7 +8298,7 @@
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B71B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB680&gt;</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -8366,7 +8366,7 @@
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABCA0&gt;</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -8434,7 +8434,7 @@
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4040&gt;</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -8502,7 +8502,7 @@
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4C10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4200&gt;</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -8570,7 +8570,7 @@
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B50E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B42E0&gt;</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -8638,7 +8638,7 @@
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4580&gt;</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -8706,7 +8706,7 @@
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B62D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5BD0&gt;</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -8774,7 +8774,7 @@
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5CB0&gt;</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -8842,7 +8842,7 @@
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B77D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4350&gt;</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -8910,7 +8910,7 @@
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B45F0&gt;</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -8978,7 +8978,7 @@
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7D80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4740&gt;</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -9046,7 +9046,7 @@
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7D10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4820&gt;</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
@@ -9114,7 +9114,7 @@
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7C30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4900&gt;</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
@@ -9182,7 +9182,7 @@
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7ED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4CF0&gt;</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
@@ -9250,7 +9250,7 @@
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4C80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4E40&gt;</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
@@ -9318,7 +9318,7 @@
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5070&gt;</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -9386,7 +9386,7 @@
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B4E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5460&gt;</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
@@ -9454,7 +9454,7 @@
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B5CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B54D0&gt;</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
@@ -9548,7 +9548,7 @@
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5540&gt;</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
@@ -9642,7 +9642,7 @@
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B51C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5930&gt;</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
@@ -9736,7 +9736,7 @@
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5A10&gt;</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B6E30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5D90&gt;</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
@@ -9924,7 +9924,7 @@
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B40B0&gt;</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
@@ -10018,7 +10018,7 @@
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B78B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4120&gt;</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
@@ -10112,7 +10112,7 @@
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7A00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4190&gt;</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
@@ -10206,7 +10206,7 @@
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7A70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4270&gt;</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
@@ -10300,7 +10300,7 @@
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7AE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B43C0&gt;</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
@@ -10394,7 +10394,7 @@
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7B50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4430&gt;</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
@@ -10488,7 +10488,7 @@
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7DF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B44A0&gt;</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -10582,7 +10582,7 @@
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000002AD6E9B7E60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4510&gt;</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">

--- a/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_train.xlsx
+++ b/F_dataset/DUD-E/MP2K1/MP2K1_preprocessing/MP2K1_train.xlsx
@@ -548,7 +548,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CHEMBL105442</t>
+          <t>CHEMBL361708</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -556,12 +556,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>O=C(NOCC1CC1)c1ccc(F)c(F)c1Nc1ccc(I)cc1Cl</t>
+          <t>NC1=NC(=O)/C(=C2\CCNC(=O)c3[nH]c(Br)cc32)N1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>O=C(NOCC1CC1)c1ccc(F)c(F)c1Nc1ccc(I)cc1Cl</t>
+          <t>NC1=NC(=O)/C(=C2\CCNC(=O)c3[nH]c(Br)cc32)N1</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -575,25 +575,25 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>478.66</v>
+        <v>324.14</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M2" t="n">
-        <v>50.36</v>
+        <v>112.37</v>
       </c>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr"/>
@@ -604,7 +604,7 @@
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA1F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B01EE0&gt;</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -616,7 +616,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CHEMBL31806</t>
+          <t>CHEMBL1169631</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -624,12 +624,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3ccc(Cc4ccccc4)cc3)c2cc1OC</t>
+          <t>CC(=O)c1cc(C(=O)N2CC[C@@H](O)C2)c(Nc2ccc(I)cc2F)n1C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3ccc(Cc4ccccc4)cc3)c2cc1OC</t>
+          <t>CC(=O)c1cc(C(=O)N2CC[C@@H](O)C2)c(Nc2ccc(I)cc2F)n1C</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -643,25 +643,25 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>395.46</v>
+        <v>471.27</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>67.17</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr"/>
@@ -672,7 +672,7 @@
       <c r="T3" t="inlineStr"/>
       <c r="U3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA180&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B01F50&gt;</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -684,7 +684,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CHEMBL361708</t>
+          <t>CHEMBL265786</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -692,12 +692,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>NC1=NC(=O)/C(=C2\CCNC(=O)c3[nH]c(Br)cc32)N1</t>
+          <t>COc1ccccc1Oc1ccc(Nc2c(C#N)cnn3cc(NC(=O)OCCN4CCOCC4)c(C)c23)cc1</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NC1=NC(=O)/C(=C2\CCNC(=O)c3[nH]c(Br)cc32)N1</t>
+          <t>COc1ccccc1Oc1ccc(Nc2c(C#N)cnn3cc(NC(=O)OCCN4CCOCC4)c(C)c23)cc1</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -711,25 +711,25 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>324.14</v>
+        <v>542.6</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>112.37</v>
+        <v>122.38</v>
       </c>
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr"/>
@@ -740,7 +740,7 @@
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9AF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02030&gt;</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -752,7 +752,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHEMBL1170802</t>
+          <t>CHEMBL535</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -760,12 +760,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CC(=O)n1cc(Nc2ccc(I)cc2F)c(C(=O)NOCCO)c1</t>
+          <t>CCN(CC)CCNC(=O)c1c(C)[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c1C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CC(=O)n1cc(Nc2ccc(I)cc2F)c(C(=O)NOCCO)c1</t>
+          <t>CCN(CC)CCNC(=O)c1c(C)[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c1C</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -779,25 +779,25 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>447.2</v>
+        <v>398.48</v>
       </c>
       <c r="H5" t="n">
         <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5" t="n">
         <v>2</v>
       </c>
       <c r="M5" t="n">
-        <v>92.59</v>
+        <v>77.23</v>
       </c>
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr"/>
@@ -808,7 +808,7 @@
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02880&gt;</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
@@ -820,7 +820,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CHEMBL1170805</t>
+          <t>CHEMBL217117</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -828,12 +828,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CC(=O)c1cc(C(=O)NOC[C@@H](O)CO)c(Nc2ccc(I)cc2F)n1C</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(S(=O)(=O)c2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CC(=O)c1cc(C(=O)NOC[C@@H](O)CO)c(Nc2ccc(I)cc2F)n1C</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(S(=O)(=O)c2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -847,25 +847,25 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>491.26</v>
+        <v>432.53</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
       </c>
       <c r="I6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
-        <v>112.82</v>
+        <v>137.9</v>
       </c>
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr"/>
@@ -876,7 +876,7 @@
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02810&gt;</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -888,7 +888,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>CHEMBL37493</t>
+          <t>CHEMBL386457</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -896,12 +896,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccncc2)c1</t>
+          <t>CN1CCN(CCC/N=C(\N)c2c(O)nsc2Nc2ccc(Oc3cc(Cl)ccc3Cl)cc2)CC1</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccncc2)c1</t>
+          <t>CN1CCN(CCC/N=C(\N)c2c(O)nsc2Nc2ccc(Oc3cc(Cl)ccc3Cl)cc2)CC1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -915,25 +915,25 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>374.47</v>
+        <v>535.5</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
         <v>3</v>
       </c>
       <c r="M7" t="n">
-        <v>108.95</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr"/>
@@ -944,7 +944,7 @@
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02B90&gt;</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -956,7 +956,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>CHEMBL1169631</t>
+          <t>CHEMBL201716</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -964,12 +964,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>CC(=O)c1cc(C(=O)N2CC[C@@H](O)C2)c(Nc2ccc(I)cc2F)n1C</t>
+          <t>Cc1c(OCCN2CCOCC2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CC(=O)c1cc(C(=O)N2CC[C@@H](O)C2)c(Nc2ccc(I)cc2F)n1C</t>
+          <t>Cc1c(OCCN2CCOCC2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -983,25 +983,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>471.27</v>
+        <v>469.55</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
-        <v>74.56999999999999</v>
+        <v>84.05</v>
       </c>
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
       <c r="T8" t="inlineStr"/>
       <c r="U8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9D20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B029D0&gt;</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1024,7 +1024,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>CHEMBL214613</t>
+          <t>CHEMBL199210</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1032,12 +1032,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Oc2cccc(F)c2F)cc1</t>
+          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Sc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Oc2cccc(F)c2F)cc1</t>
+          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Sc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>420.44</v>
+        <v>482.61</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>112.99</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr"/>
@@ -1080,7 +1080,7 @@
       <c r="T9" t="inlineStr"/>
       <c r="U9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02DC0&gt;</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
@@ -1092,7 +1092,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CHEMBL375609</t>
+          <t>CHEMBL106489</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1100,44 +1100,44 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1cccc(Cl)c1Cl</t>
+          <t>COc1cc2c(Nc3ccc(Sc4ncc(C)n4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1cccc(Cl)c1Cl</t>
+          <t>COc1cc2c(Nc3ccc(Sc4ncc(C)n4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>361.25</v>
+        <v>579.13</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
+        <v>9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>10</v>
+      </c>
+      <c r="K10" t="n">
         <v>5</v>
       </c>
-      <c r="J10" t="n">
-        <v>5</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2</v>
-      </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M10" t="n">
-        <v>103.76</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr"/>
@@ -1148,7 +1148,7 @@
       <c r="T10" t="inlineStr"/>
       <c r="U10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B025E0&gt;</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
@@ -1160,7 +1160,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>CHEMBL485285</t>
+          <t>CHEMBL29714</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1168,44 +1168,44 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2cccc(N3CCOCC3)c2)cc1-c1ccc2c(C3CCNCC3)noc2c1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Cc1ccc(C(=O)Nc2cccc(N3CCOCC3)c2)cc1-c1ccc2c(C3CCNCC3)noc2c1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>496.61</v>
+        <v>526.66</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
         <v>5</v>
       </c>
-      <c r="K11" t="n">
-        <v>6</v>
-      </c>
       <c r="L11" t="n">
         <v>4</v>
       </c>
       <c r="M11" t="n">
-        <v>79.63</v>
+        <v>79.64</v>
       </c>
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr"/>
@@ -1216,7 +1216,7 @@
       <c r="T11" t="inlineStr"/>
       <c r="U11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03920&gt;</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
@@ -1228,7 +1228,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>CHEMBL535</t>
+          <t>CHEMBL30728</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1236,44 +1236,44 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CCN(CC)CCNC(=O)c1c(C)[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c1C</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>CCN(CC)CCNC(=O)c1c(C)[nH]c(/C=C2\C(=O)Nc3ccc(F)cc32)c1C</t>
+          <t>COc1cc2c(Nc3ccc(Cc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>398.48</v>
+        <v>508.62</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>77.23</v>
+        <v>79.64</v>
       </c>
       <c r="N12" t="inlineStr"/>
       <c r="O12" t="inlineStr"/>
@@ -1284,7 +1284,7 @@
       <c r="T12" t="inlineStr"/>
       <c r="U12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03450&gt;</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>CHEMBL217117</t>
+          <t>CHEMBL485615</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -1304,44 +1304,44 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(S(=O)(=O)c2ccccc2)cc1</t>
+          <t>CCN(CC)CC/C=C/c1cc2ncc(C#N)c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(S(=O)(=O)c2ccccc2)cc1</t>
+          <t>CCN(CC)CC/C=C/c1cc2ncc(C#N)c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>432.53</v>
+        <v>547.13</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>7</v>
       </c>
       <c r="J13" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>137.9</v>
+        <v>79</v>
       </c>
       <c r="N13" t="inlineStr"/>
       <c r="O13" t="inlineStr"/>
@@ -1352,7 +1352,7 @@
       <c r="T13" t="inlineStr"/>
       <c r="U13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9F50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B01FC0&gt;</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -1364,7 +1364,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CHEMBL495729</t>
+          <t>CHEMBL288081</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1372,35 +1372,35 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Cc1nnc(-c2ccc(-c3cc(NC(=O)c4ccnc(N5CCCC5)c4)ccc3C)c(C)c2)o1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4cccs4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Cc1nnc(-c2ccc(-c3cc(NC(=O)c4ccnc(N5CCCC5)c4)ccc3C)c(C)c2)o1</t>
+          <t>COc1cc2c(Nc3ccc(Cc4cccs4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>453.55</v>
+        <v>514.65</v>
       </c>
       <c r="H14" t="n">
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1409,7 +1409,7 @@
         <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>84.15000000000001</v>
+        <v>79.64</v>
       </c>
       <c r="N14" t="inlineStr"/>
       <c r="O14" t="inlineStr"/>
@@ -1420,7 +1420,7 @@
       <c r="T14" t="inlineStr"/>
       <c r="U14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9FC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B026C0&gt;</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -1432,7 +1432,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CHEMBL386457</t>
+          <t>CHEMBL31733</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -1440,44 +1440,44 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CN1CCN(CCC/N=C(\N)c2c(O)nsc2Nc2ccc(Oc3cc(Cl)ccc3Cl)cc2)CC1</t>
+          <t>COc1cc2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c2cc1OC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>CN1CCN(CCC/N=C(\N)c2c(O)nsc2Nc2ccc(Oc3cc(Cl)ccc3Cl)cc2)CC1</t>
+          <t>COc1cc2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c2cc1OC</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>535.5</v>
+        <v>397.43</v>
       </c>
       <c r="H15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
-        <v>99.23999999999999</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="N15" t="inlineStr"/>
       <c r="O15" t="inlineStr"/>
@@ -1488,7 +1488,7 @@
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02E30&gt;</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
@@ -1500,7 +1500,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHEMBL201384</t>
+          <t>CHEMBL288349</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -1508,44 +1508,44 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Cc1c(Nc2ccccc2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc(C#N)cc2)c1</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Cc1c(Nc2ccccc2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc(C#N)cc2)c1</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>431.5</v>
+        <v>398.49</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I16" t="n">
+        <v>6</v>
+      </c>
+      <c r="J16" t="n">
         <v>5</v>
       </c>
-      <c r="J16" t="n">
-        <v>6</v>
-      </c>
       <c r="K16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>74.38</v>
+        <v>119.85</v>
       </c>
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
@@ -1556,7 +1556,7 @@
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02EA0&gt;</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
@@ -1568,7 +1568,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>CHEMBL422940</t>
+          <t>CHEMBL95002</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -1576,44 +1576,44 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(=O)c2ccccc2)c1</t>
+          <t>COc1cc2c(Nc3ccc(Oc4ccccc4)cc3)c(C#N)cnc2cc1OCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(=O)c2ccccc2)c1</t>
+          <t>COc1cc2c(Nc3ccc(Oc4ccccc4)cc3)c(C#N)cnc2cc1OCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>371.47</v>
+        <v>496.57</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
+        <v>8</v>
+      </c>
+      <c r="J17" t="n">
+        <v>9</v>
+      </c>
+      <c r="K17" t="n">
         <v>5</v>
       </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3</v>
-      </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>92.90000000000001</v>
+        <v>88.87</v>
       </c>
       <c r="N17" t="inlineStr"/>
       <c r="O17" t="inlineStr"/>
@@ -1624,7 +1624,7 @@
       <c r="T17" t="inlineStr"/>
       <c r="U17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02340&gt;</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
@@ -1636,7 +1636,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CHEMBL201716</t>
+          <t>CHEMBL318326</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1644,35 +1644,35 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCOCC2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
+          <t>COc1cc2c(Nc3ccc(Sc4ccccn4)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Cc1c(OCCN2CCOCC2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
+          <t>COc1cc2c(Nc3ccc(Sc4ccccn4)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>469.55</v>
+        <v>562.1</v>
       </c>
       <c r="H18" t="n">
         <v>1</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J18" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>5</v>
@@ -1681,7 +1681,7 @@
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>84.05</v>
+        <v>92.53</v>
       </c>
       <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
@@ -1692,7 +1692,7 @@
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA2D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02F80&gt;</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
@@ -1704,7 +1704,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>CHEMBL440356</t>
+          <t>CHEMBL102786</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1712,44 +1712,44 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>O=C1CCNC(=O)c2[nH]c(Br)cc21</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccs4)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>O=C1CCNC(=O)c2[nH]c(Br)cc21</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccs4)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>243.06</v>
+        <v>568.12</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>61.96</v>
+        <v>92.53</v>
       </c>
       <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
@@ -1760,7 +1760,7 @@
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02570&gt;</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
@@ -1772,7 +1772,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>CHEMBL37646</t>
+          <t>CHEMBL337728</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1780,44 +1780,44 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccc(Oc2ccccc2)cc1</t>
+          <t>COc1cc2cc3ncc(C#N)c(Nc4ccc(Oc5ccccc5)cc4)c3cc2cc1OC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccc(Oc2ccccc2)cc1</t>
+          <t>COc1cc2cc3ncc(C#N)c(Nc4ccc(Oc5ccccc5)cc4)c3cc2cc1OC</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>359.45</v>
+        <v>447.49</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
+        <v>6</v>
+      </c>
+      <c r="J20" t="n">
+        <v>6</v>
+      </c>
+      <c r="K20" t="n">
         <v>5</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>5</v>
       </c>
-      <c r="K20" t="n">
-        <v>3</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3</v>
-      </c>
       <c r="M20" t="n">
-        <v>85.06</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
@@ -1828,7 +1828,7 @@
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03140&gt;</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
@@ -1840,7 +1840,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>CHEMBL199210</t>
+          <t>CHEMBL202286</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1848,44 +1848,44 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Sc2ccccc2)cc1</t>
+          <t>CC(=O)Nc1cccc(C(=O)Nc2cn3ncc(C#N)c(Nc4ccc(Oc5ccccc5)cc4)c3c2C)c1</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Sc2ccccc2)cc1</t>
+          <t>CC(=O)Nc1cccc(C(=O)Nc2cn3ncc(C#N)c(Nc4ccc(Oc5ccccc5)cc4)c3c2C)c1</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>G1 active</t>
+          <t>G2 active</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>G1</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>482.61</v>
+        <v>516.5599999999999</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
         <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M21" t="n">
-        <v>86.09999999999999</v>
+        <v>120.55</v>
       </c>
       <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
@@ -1896,7 +1896,7 @@
       <c r="T21" t="inlineStr"/>
       <c r="U21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03220&gt;</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
@@ -1908,7 +1908,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>CHEMBL30728</t>
+          <t>CHEMBL284708</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Cc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccs2)c1</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Cc4ccccc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccs2)c1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1935,25 +1935,25 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>508.62</v>
+        <v>379.51</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J22" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M22" t="n">
-        <v>79.64</v>
+        <v>96.06</v>
       </c>
       <c r="N22" t="inlineStr"/>
       <c r="O22" t="inlineStr"/>
@@ -1964,7 +1964,7 @@
       <c r="T22" t="inlineStr"/>
       <c r="U22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA110&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02F10&gt;</t>
         </is>
       </c>
       <c r="V22" t="inlineStr">
@@ -1976,7 +1976,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>CHEMBL31733</t>
+          <t>CHEMBL38195</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1984,12 +1984,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c2cc1OC</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccsc2)c1</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c2cc1OC</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccsc2)c1</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -2003,25 +2003,25 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>397.43</v>
+        <v>379.51</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>76.40000000000001</v>
+        <v>96.06</v>
       </c>
       <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
@@ -2032,7 +2032,7 @@
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03290&gt;</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
@@ -2044,7 +2044,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>CHEMBL102786</t>
+          <t>CHEMBL383108</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -2052,12 +2052,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccs4)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>CNC(=O)Nc1cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c2c1C</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccs4)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>CNC(=O)Nc1cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c2c1C</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -2071,25 +2071,25 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>568.12</v>
+        <v>412.45</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" t="n">
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>92.53</v>
+        <v>103.48</v>
       </c>
       <c r="N24" t="inlineStr"/>
       <c r="O24" t="inlineStr"/>
@@ -2100,7 +2100,7 @@
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02180&gt;</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -2112,7 +2112,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>CHEMBL202286</t>
+          <t>CHEMBL282361</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -2120,12 +2120,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1cccc(C(=O)Nc2cn3ncc(C#N)c(Nc4ccc(Oc5ccccc5)cc4)c3c2C)c1</t>
+          <t>COc1cc2c(Nc3ccc(SC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1cccc(C(=O)Nc2cn3ncc(C#N)c(Nc4ccc(Oc5ccccc5)cc4)c3c2C)c1</t>
+          <t>COc1cc2c(Nc3ccc(SC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -2139,25 +2139,25 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>516.5599999999999</v>
+        <v>532.71</v>
       </c>
       <c r="H25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="K25" t="n">
         <v>5</v>
       </c>
       <c r="L25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>120.55</v>
+        <v>79.64</v>
       </c>
       <c r="N25" t="inlineStr"/>
       <c r="O25" t="inlineStr"/>
@@ -2168,7 +2168,7 @@
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA340&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02420&gt;</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
@@ -2180,7 +2180,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>CHEMBL284708</t>
+          <t>CHEMBL38321</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -2188,12 +2188,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccs2)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccnc2)c1</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccs2)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccnc2)c1</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -2207,13 +2207,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>379.51</v>
+        <v>374.47</v>
       </c>
       <c r="H26" t="n">
         <v>3</v>
       </c>
       <c r="I26" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>5</v>
@@ -2225,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="M26" t="n">
-        <v>96.06</v>
+        <v>108.95</v>
       </c>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -2236,7 +2236,7 @@
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA3B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B031B0&gt;</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
@@ -2248,7 +2248,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>CHEMBL38195</t>
+          <t>CHEMBL34072</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -2256,12 +2256,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccsc2)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc3c(c2)OCCO3)c1</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccsc2)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc3c(c2)OCCO3)c1</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -2275,25 +2275,25 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>379.51</v>
+        <v>431.52</v>
       </c>
       <c r="H27" t="n">
         <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
         <v>5</v>
       </c>
       <c r="K27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27" t="n">
         <v>3</v>
       </c>
       <c r="M27" t="n">
-        <v>96.06</v>
+        <v>114.52</v>
       </c>
       <c r="N27" t="inlineStr"/>
       <c r="O27" t="inlineStr"/>
@@ -2304,7 +2304,7 @@
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA7A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03610&gt;</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
@@ -2316,7 +2316,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>CHEMBL282361</t>
+          <t>CHEMBL214901</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -2324,12 +2324,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(SC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>N/C(=N\N1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(SC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>N/C(=N\N1CCOCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -2343,25 +2343,25 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>532.71</v>
+        <v>480.38</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J28" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="K28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L28" t="n">
         <v>3</v>
       </c>
       <c r="M28" t="n">
-        <v>79.64</v>
+        <v>105.23</v>
       </c>
       <c r="N28" t="inlineStr"/>
       <c r="O28" t="inlineStr"/>
@@ -2372,7 +2372,7 @@
       <c r="T28" t="inlineStr"/>
       <c r="U28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03760&gt;</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
@@ -2384,7 +2384,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>CHEMBL202356</t>
+          <t>CHEMBL383858</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -2392,12 +2392,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>COc1ccccc1Oc1ccc(Nc2c(C#N)cnn3cc(NC(=O)NCCN4CCOCC4)c(C)c23)cc1</t>
+          <t>CN1CCN(/N=C(\N)c2c(O)nsc2Nc2ccc(Oc3cc(Cl)ccc3Cl)cc2)CC1</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>COc1ccccc1Oc1ccc(Nc2c(C#N)cnn3cc(NC(=O)NCCN4CCOCC4)c(C)c23)cc1</t>
+          <t>CN1CCN(/N=C(\N)c2c(O)nsc2Nc2ccc(Oc3cc(Cl)ccc3Cl)cc2)CC1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -2411,25 +2411,25 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>541.61</v>
+        <v>493.42</v>
       </c>
       <c r="H29" t="n">
         <v>3</v>
       </c>
       <c r="I29" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J29" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
-        <v>125.18</v>
+        <v>99.23999999999999</v>
       </c>
       <c r="N29" t="inlineStr"/>
       <c r="O29" t="inlineStr"/>
@@ -2440,7 +2440,7 @@
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B037D0&gt;</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
@@ -2452,7 +2452,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>CHEMBL34072</t>
+          <t>CHEMBL216449</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2460,12 +2460,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc3c(c2)OCCO3)c1</t>
+          <t>N/C(=N\CC1CCCO1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc3c(c2)OCCO3)c1</t>
+          <t>N/C(=N\CC1CCCO1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -2479,17 +2479,17 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>431.52</v>
+        <v>479.39</v>
       </c>
       <c r="H30" t="n">
         <v>3</v>
       </c>
       <c r="I30" t="n">
+        <v>6</v>
+      </c>
+      <c r="J30" t="n">
         <v>7</v>
       </c>
-      <c r="J30" t="n">
-        <v>5</v>
-      </c>
       <c r="K30" t="n">
         <v>4</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>3</v>
       </c>
       <c r="M30" t="n">
-        <v>114.52</v>
+        <v>101.99</v>
       </c>
       <c r="N30" t="inlineStr"/>
       <c r="O30" t="inlineStr"/>
@@ -2508,7 +2508,7 @@
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03990&gt;</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
@@ -2520,7 +2520,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>CHEMBL383858</t>
+          <t>CHEMBL35029</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2528,12 +2528,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CN1CCN(/N=C(\N)c2c(O)nsc2Nc2ccc(Oc3cc(Cl)ccc3Cl)cc2)CC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc(-c3nn[nH]n3)cc2)c1</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CN1CCN(/N=C(\N)c2c(O)nsc2Nc2ccc(Oc3cc(Cl)ccc3Cl)cc2)CC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc(-c3nn[nH]n3)cc2)c1</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2547,13 +2547,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>493.42</v>
+        <v>441.52</v>
       </c>
       <c r="H31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I31" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J31" t="n">
         <v>6</v>
@@ -2562,10 +2562,10 @@
         <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>99.23999999999999</v>
+        <v>150.52</v>
       </c>
       <c r="N31" t="inlineStr"/>
       <c r="O31" t="inlineStr"/>
@@ -2576,7 +2576,7 @@
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03840&gt;</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -2588,7 +2588,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CHEMBL216449</t>
+          <t>CHEMBL37504</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>N/C(=N\CC1CCCO1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Oc2ccccc2)c1</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>N/C(=N\CC1CCCO1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Oc2ccccc2)c1</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2615,25 +2615,25 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>479.39</v>
+        <v>359.45</v>
       </c>
       <c r="H32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" t="n">
         <v>3</v>
       </c>
       <c r="M32" t="n">
-        <v>101.99</v>
+        <v>85.06</v>
       </c>
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
@@ -2644,7 +2644,7 @@
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA650&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B036F0&gt;</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
@@ -2656,7 +2656,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>CHEMBL35029</t>
+          <t>CHEMBL216832</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2664,12 +2664,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc(-c3nn[nH]n3)cc2)c1</t>
+          <t>N/C(=N\CCN1CCNC(=O)C1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc(-c3nn[nH]n3)cc2)c1</t>
+          <t>N/C(=N\CCN1CCNC(=O)C1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2683,25 +2683,25 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>441.52</v>
+        <v>521.4299999999999</v>
       </c>
       <c r="H33" t="n">
         <v>4</v>
       </c>
       <c r="I33" t="n">
+        <v>7</v>
+      </c>
+      <c r="J33" t="n">
         <v>8</v>
       </c>
-      <c r="J33" t="n">
-        <v>6</v>
-      </c>
       <c r="K33" t="n">
         <v>4</v>
       </c>
       <c r="L33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M33" t="n">
-        <v>150.52</v>
+        <v>125.1</v>
       </c>
       <c r="N33" t="inlineStr"/>
       <c r="O33" t="inlineStr"/>
@@ -2712,7 +2712,7 @@
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA810&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B038B0&gt;</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -2724,7 +2724,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>CHEMBL37504</t>
+          <t>CHEMBL386230</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2732,12 +2732,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Oc2ccccc2)c1</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Sc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Oc2ccccc2)c1</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Sc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2751,16 +2751,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>359.45</v>
+        <v>400.53</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K34" t="n">
         <v>3</v>
@@ -2769,7 +2769,7 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>85.06</v>
+        <v>103.76</v>
       </c>
       <c r="N34" t="inlineStr"/>
       <c r="O34" t="inlineStr"/>
@@ -2780,7 +2780,7 @@
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03E60&gt;</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
@@ -2792,7 +2792,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CHEMBL386230</t>
+          <t>CHEMBL33906</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -2800,12 +2800,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Sc2ccccc2)cc1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccc3ccccc23)c1</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Sc2ccccc2)cc1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccc3ccccc23)c1</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2819,25 +2819,25 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>400.53</v>
+        <v>423.54</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>103.76</v>
+        <v>96.06</v>
       </c>
       <c r="N35" t="inlineStr"/>
       <c r="O35" t="inlineStr"/>
@@ -2848,7 +2848,7 @@
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02AB0&gt;</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
@@ -2860,7 +2860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>CHEMBL33906</t>
+          <t>CHEMBL290886</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -2868,12 +2868,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccc3ccccc23)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccoc2)c1</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2cccc3ccccc23)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccoc2)c1</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2887,25 +2887,25 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>423.54</v>
+        <v>363.44</v>
       </c>
       <c r="H36" t="n">
         <v>3</v>
       </c>
       <c r="I36" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
         <v>5</v>
       </c>
       <c r="K36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36" t="n">
-        <v>96.06</v>
+        <v>109.2</v>
       </c>
       <c r="N36" t="inlineStr"/>
       <c r="O36" t="inlineStr"/>
@@ -2916,7 +2916,7 @@
       <c r="T36" t="inlineStr"/>
       <c r="U36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA960&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B022D0&gt;</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
@@ -2928,7 +2928,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>CHEMBL290886</t>
+          <t>CHEMBL34601</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -2936,12 +2936,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccoc2)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)C2CCCCC2)c1</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccoc2)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)C2CCCCC2)c1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2955,13 +2955,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>363.44</v>
+        <v>379.53</v>
       </c>
       <c r="H37" t="n">
         <v>3</v>
       </c>
       <c r="I37" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J37" t="n">
         <v>5</v>
@@ -2970,10 +2970,10 @@
         <v>3</v>
       </c>
       <c r="L37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M37" t="n">
-        <v>109.2</v>
+        <v>96.06</v>
       </c>
       <c r="N37" t="inlineStr"/>
       <c r="O37" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AA9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B02D50&gt;</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
@@ -2996,7 +2996,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>CHEMBL34601</t>
+          <t>CHEMBL217310</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)C2CCCCC2)c1</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Cc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)C2CCCCC2)c1</t>
+          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(Cc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -3023,25 +3023,25 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>379.53</v>
+        <v>382.49</v>
       </c>
       <c r="H38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
         <v>5</v>
       </c>
       <c r="J38" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="K38" t="n">
         <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
-        <v>96.06</v>
+        <v>103.76</v>
       </c>
       <c r="N38" t="inlineStr"/>
       <c r="O38" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03060&gt;</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
@@ -3064,7 +3064,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>CHEMBL287959</t>
+          <t>CHEMBL521013</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -3072,12 +3072,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc3ccccc3c2)c1</t>
+          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CN4CCCC4)ccc23)cc1Cl</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc3ccccc3c2)c1</t>
+          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CN4CCCC4)ccc23)cc1Cl</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -3091,25 +3091,25 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>423.54</v>
+        <v>501.06</v>
       </c>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
+        <v>6</v>
+      </c>
+      <c r="J39" t="n">
+        <v>7</v>
+      </c>
+      <c r="K39" t="n">
         <v>5</v>
       </c>
-      <c r="J39" t="n">
-        <v>5</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4</v>
-      </c>
       <c r="L39" t="n">
         <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>96.06</v>
+        <v>69.77</v>
       </c>
       <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
@@ -3120,7 +3120,7 @@
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAAB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135B03300&gt;</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
@@ -3132,7 +3132,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>CHEMBL418230</t>
+          <t>CHEMBL30763</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -3140,12 +3140,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccccn2)c1</t>
+          <t>COc1cc2ncc(C#N)c(Nc3cccc(Oc4ccccc4)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccccn2)c1</t>
+          <t>COc1cc2ncc(C#N)c(Nc3cccc(Oc4ccccc4)c3)c2cc1OC</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -3159,25 +3159,25 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>374.47</v>
+        <v>397.43</v>
       </c>
       <c r="H40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>6</v>
       </c>
       <c r="J40" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M40" t="n">
-        <v>108.95</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="N40" t="inlineStr"/>
       <c r="O40" t="inlineStr"/>
@@ -3188,7 +3188,7 @@
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAB20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5D770&gt;</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
@@ -3200,7 +3200,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>CHEMBL217130</t>
+          <t>CHEMBL287959</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -3208,12 +3208,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(=O)c2ccccc2)cc1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc3ccccc3c2)c1</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(=O)c2ccccc2)cc1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccc3ccccc3c2)c1</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -3227,25 +3227,25 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>396.47</v>
+        <v>423.54</v>
       </c>
       <c r="H41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
-        <v>120.83</v>
+        <v>96.06</v>
       </c>
       <c r="N41" t="inlineStr"/>
       <c r="O41" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5DAF0&gt;</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
@@ -3268,7 +3268,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>CHEMBL31149</t>
+          <t>CHEMBL418230</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -3276,12 +3276,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(OC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccccn2)c1</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(OC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccccn2)c1</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -3295,25 +3295,25 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>516.64</v>
+        <v>374.47</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J42" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L42" t="n">
         <v>3</v>
       </c>
       <c r="M42" t="n">
-        <v>88.87</v>
+        <v>108.95</v>
       </c>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
@@ -3324,7 +3324,7 @@
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAC00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5C2E0&gt;</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
@@ -3336,7 +3336,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>CHEMBL31639</t>
+          <t>CHEMBL31149</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -3344,12 +3344,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3ccc(Nc4ccccc4)cc3)c2cc1OC</t>
+          <t>COc1cc2c(Nc3ccc(OC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>COc1cc2ncc(C#N)c(Nc3ccc(Nc4ccccc4)cc3)c2cc1OC</t>
+          <t>COc1cc2c(Nc3ccc(OC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -3363,25 +3363,25 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>396.45</v>
+        <v>516.64</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M43" t="n">
-        <v>79.2</v>
+        <v>88.87</v>
       </c>
       <c r="N43" t="inlineStr"/>
       <c r="O43" t="inlineStr"/>
@@ -3392,7 +3392,7 @@
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5C350&gt;</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -3404,7 +3404,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CHEMBL382616</t>
+          <t>CHEMBL31639</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -3412,12 +3412,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Cc1c(-c2nc3ccccc3[nH]2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
+          <t>COc1cc2ncc(C#N)c(Nc3ccc(Nc4ccccc4)cc3)c2cc1OC</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Cc1c(-c2nc3ccccc3[nH]2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
+          <t>COc1cc2ncc(C#N)c(Nc3ccc(Nc4ccccc4)cc3)c2cc1OC</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -3431,25 +3431,25 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>456.51</v>
+        <v>396.45</v>
       </c>
       <c r="H44" t="n">
         <v>2</v>
       </c>
       <c r="I44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J44" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>91.03</v>
+        <v>79.2</v>
       </c>
       <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
@@ -3460,7 +3460,7 @@
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AACE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5C890&gt;</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
@@ -3472,7 +3472,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>CHEMBL34436</t>
+          <t>CHEMBL382616</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -3480,12 +3480,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)Cc2ccccc2)c1</t>
+          <t>Cc1c(-c2nc3ccccc3[nH]2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)Cc2ccccc2)c1</t>
+          <t>Cc1c(-c2nc3ccccc3[nH]2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -3499,25 +3499,25 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>387.51</v>
+        <v>456.51</v>
       </c>
       <c r="H45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" t="n">
         <v>5</v>
       </c>
       <c r="J45" t="n">
+        <v>5</v>
+      </c>
+      <c r="K45" t="n">
         <v>6</v>
       </c>
-      <c r="K45" t="n">
-        <v>3</v>
-      </c>
       <c r="L45" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>96.06</v>
+        <v>91.03</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr"/>
@@ -3528,7 +3528,7 @@
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5C900&gt;</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
@@ -3540,7 +3540,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>CHEMBL35988</t>
+          <t>CHEMBL34436</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -3548,12 +3548,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>CC(O)c1cccc(/C(C#N)=C(\N)Sc2ccccc2N)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)Cc2ccccc2)c1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>CC(O)c1cccc(/C(C#N)=C(\N)Sc2ccccc2N)c1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)Cc2ccccc2)c1</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -3567,7 +3567,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>311.41</v>
+        <v>387.51</v>
       </c>
       <c r="H46" t="n">
         <v>3</v>
@@ -3576,13 +3576,13 @@
         <v>5</v>
       </c>
       <c r="J46" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>96.06</v>
@@ -3596,7 +3596,7 @@
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AADC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5C970&gt;</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
@@ -3608,7 +3608,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CHEMBL282976</t>
+          <t>CHEMBL35988</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -3616,12 +3616,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(CC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>CC(O)c1cccc(/C(C#N)=C(\N)Sc2ccccc2N)c1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(CC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>CC(O)c1cccc(/C(C#N)=C(\N)Sc2ccccc2N)c1</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -3635,25 +3635,25 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>514.67</v>
+        <v>311.41</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J47" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M47" t="n">
-        <v>79.64</v>
+        <v>96.06</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr"/>
@@ -3664,7 +3664,7 @@
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAE30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5C9E0&gt;</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
@@ -3676,7 +3676,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>CHEMBL320688</t>
+          <t>CHEMBL282976</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3684,12 +3684,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Cc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>COc1cc2c(Nc3ccc(CC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Cc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>COc1cc2c(Nc3ccc(CC4CCCCC4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -3703,13 +3703,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>547.0599999999999</v>
+        <v>514.67</v>
       </c>
       <c r="H48" t="n">
         <v>1</v>
       </c>
       <c r="I48" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J48" t="n">
         <v>10</v>
@@ -3718,10 +3718,10 @@
         <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M48" t="n">
-        <v>97.45999999999999</v>
+        <v>79.64</v>
       </c>
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
@@ -3732,7 +3732,7 @@
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAEA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5CB30&gt;</t>
         </is>
       </c>
       <c r="V48" t="inlineStr">
@@ -3744,7 +3744,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>CHEMBL201833</t>
+          <t>CHEMBL320688</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Cc1c(C(=O)NCCN2CCOCC2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
+          <t>COc1cc2c(Nc3ccc(Cc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Cc1c(C(=O)NCCN2CCOCC2)cn2ncc(C#N)c(Nc3ccc(Oc4ccccc4)cc3)c12</t>
+          <t>COc1cc2c(Nc3ccc(Cc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -3771,16 +3771,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>496.57</v>
+        <v>547.0599999999999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J49" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K49" t="n">
         <v>5</v>
@@ -3789,7 +3789,7 @@
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>103.92</v>
+        <v>97.45999999999999</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr"/>
@@ -3800,7 +3800,7 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAF10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5CC80&gt;</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
@@ -3812,7 +3812,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL371095</t>
+          <t>CHEMBL30597</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3820,12 +3820,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Oc2ccccc2)cc1</t>
+          <t>COc1cc2ncc(C#N)c(Nc3ccc(SC)cc3)c2cc1OC</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Oc2ccccc2)cc1</t>
+          <t>COc1cc2ncc(C#N)c(Nc3ccc(SC)cc3)c2cc1OC</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3839,25 +3839,25 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>466.55</v>
+        <v>351.43</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J50" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M50" t="n">
-        <v>95.33</v>
+        <v>67.17</v>
       </c>
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
@@ -3868,7 +3868,7 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAF80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5CCF0&gt;</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
@@ -3880,7 +3880,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL105642</t>
+          <t>CHEMBL38216</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3888,12 +3888,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCS(=O)CC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccco2)c1</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCS(=O)CC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(C(O)c2ccco2)c1</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3903,29 +3903,29 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>597.17</v>
+        <v>363.44</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J51" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M51" t="n">
-        <v>105.3</v>
+        <v>109.2</v>
       </c>
       <c r="N51" t="inlineStr"/>
       <c r="O51" t="inlineStr"/>
@@ -3936,7 +3936,7 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AAFF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5CEB0&gt;</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
@@ -3948,7 +3948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHEMBL524111</t>
+          <t>CHEMBL285905</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3956,12 +3956,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1/C=C/CCN1CCN(C)CC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccccc1Oc1ccccc1</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1/C=C/CCN1CCN(C)CC1</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccccc1Oc1ccccc1</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3971,29 +3971,29 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>574.15</v>
+        <v>359.45</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="K52" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M52" t="n">
-        <v>82.23999999999999</v>
+        <v>85.06</v>
       </c>
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr"/>
@@ -4004,7 +4004,7 @@
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5CF20&gt;</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
@@ -4016,7 +4016,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>CHEMBL521502</t>
+          <t>CHEMBL37548</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -4024,12 +4024,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CCN4CCCC4)ccc23)cc1Cl</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccc(C(=O)c2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Cn1ccnc1Sc1ccc(Nc2c(C#N)cnc3cc(/C=C/CCN4CCCC4)ccc23)cc1Cl</t>
+          <t>N#C/C(=C(/N)Sc1ccccc1N)c1ccc(C(=O)c2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -4039,29 +4039,29 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>515.09</v>
+        <v>371.47</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I53" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M53" t="n">
-        <v>69.77</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
@@ -4072,7 +4072,7 @@
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5D0E0&gt;</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -4084,7 +4084,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CHEMBL31497</t>
+          <t>CHEMBL371095</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -4092,12 +4092,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Oc4ccncc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Oc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>COc1cc2c(Nc3ccc(Oc4ccncc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
+          <t>N#Cc1cnc2cnc(NCCN3CCOCC3)cc2c1Nc1ccc(Oc2ccccc2)cc1</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -4107,20 +4107,20 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>511.58</v>
+        <v>466.55</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I54" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K54" t="n">
         <v>5</v>
@@ -4129,7 +4129,7 @@
         <v>4</v>
       </c>
       <c r="M54" t="n">
-        <v>101.76</v>
+        <v>95.33</v>
       </c>
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
@@ -4140,7 +4140,7 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB140&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5D1C0&gt;</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
@@ -4152,7 +4152,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CHEMBL214683</t>
+          <t>CHEMBL105642</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -4160,12 +4160,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>N/C(=N\CCN1CCNCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCS(=O)CC1</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>N/C(=N\CCN1CCNCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1OCCCN1CCS(=O)CC1</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -4179,25 +4179,25 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>507.45</v>
+        <v>597.17</v>
       </c>
       <c r="H55" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J55" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>108.03</v>
+        <v>105.3</v>
       </c>
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr"/>
@@ -4208,7 +4208,7 @@
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5D230&gt;</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
@@ -4220,7 +4220,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CHEMBL37871</t>
+          <t>CHEMBL524111</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -4228,12 +4228,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Cc2ccccc2)c1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1/C=C/CCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>N#C/C(=C(/N)Sc1ccccc1N)c1cccc(Cc2ccccc2)c1</t>
+          <t>COc1cc2c(Nc3ccc(Sc4nccn4C)c(Cl)c3)c(C#N)cnc2cc1/C=C/CCN1CCN(C)CC1</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -4243,66 +4243,40 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>357.48</v>
+        <v>574.15</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
+        <v>9</v>
+      </c>
+      <c r="K56" t="n">
         <v>5</v>
       </c>
-      <c r="K56" t="n">
-        <v>3</v>
-      </c>
       <c r="L56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>75.83</v>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q56" t="n">
-        <v>40</v>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>CHEMBL729500</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Inhibitory potency against mitogen activated protein kinase kinase 1</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>82.23999999999999</v>
+      </c>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB220&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5D2A0&gt;</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
@@ -4314,7 +4288,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHEMBL213168</t>
+          <t>CHEMBL31497</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -4322,12 +4296,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(F)(F)F)cc1Cl</t>
+          <t>COc1cc2c(Nc3ccc(Oc4ccncc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CC(CO)/N=C(\N)c1c(O)nsc1Nc1ccc(C(F)(F)F)cc1Cl</t>
+          <t>COc1cc2c(Nc3ccc(Oc4ccncc4)cc3)c(C#N)cnc2cc1OCCCN1CCOCC1</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -4337,66 +4311,40 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>394.81</v>
+        <v>511.58</v>
       </c>
       <c r="H57" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I57" t="n">
+        <v>9</v>
+      </c>
+      <c r="J57" t="n">
+        <v>10</v>
+      </c>
+      <c r="K57" t="n">
         <v>5</v>
       </c>
-      <c r="J57" t="n">
-        <v>5</v>
-      </c>
-      <c r="K57" t="n">
-        <v>2</v>
-      </c>
       <c r="L57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>103.76</v>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q57" t="n">
-        <v>86</v>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>CHEMBL867341</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>101.76</v>
+      </c>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB290&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5D310&gt;</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -4408,7 +4356,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CHEMBL203414</t>
+          <t>CHEMBL214683</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -4416,12 +4364,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Oc4ccc(Cl)cc4)cc3)c2c1C</t>
+          <t>N/C(=N\CCN1CCNCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>CCOC(=O)c1cn2ncc(C#N)c(Nc3ccc(Oc4ccc(Cl)cc4)cc3)c2c1C</t>
+          <t>N/C(=N\CCN1CCNCC1)c1c(O)nsc1Nc1ccc(Oc2cc(Cl)ccc2Cl)cc1</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -4431,66 +4379,40 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>446.89</v>
+        <v>507.45</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I58" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J58" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="K58" t="n">
         <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>88.65000000000001</v>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>IC50</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>nM</t>
-        </is>
-      </c>
-      <c r="Q58" t="n">
-        <v>642</v>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>CHEMBL861916</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>Inhibitory activity against MEK</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>108.03</v>
+      </c>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
       <c r="U58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB300&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135F5D3F0&gt;</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -4558,7 +4480,7 @@
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA338F680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135993D10&gt;</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -4626,7 +4548,7 @@
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA338F760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135993C30&gt;</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
@@ -4694,7 +4616,7 @@
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA338FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135993E60&gt;</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
@@ -4706,7 +4628,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>C39280364</t>
+          <t>C04991153</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -4714,12 +4636,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Cc1ccc(C2=C[C@H]([C@H]3NN[C@H](S)N3N)N=N2)cc1</t>
+          <t>CNc1nc(Cl)nc2c1ncn2[C@@H]1OC[C@@H](O)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Cc1ccc(C2=C[C@H]([C@H]3NN[C@H](S)N3N)N=N2)cc1</t>
+          <t>CNc1nc(Cl)nc2c1ncn2[C@@H]1OC[C@@H](O)[C@@H](O)[C@@H]1O</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -4733,13 +4655,13 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>276.37</v>
+        <v>315.72</v>
       </c>
       <c r="H62" t="n">
         <v>4</v>
       </c>
       <c r="I62" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J62" t="n">
         <v>2</v>
@@ -4748,10 +4670,10 @@
         <v>3</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>78.04000000000001</v>
+        <v>125.55</v>
       </c>
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr"/>
@@ -4762,7 +4684,7 @@
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA3358510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135993ED0&gt;</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
@@ -4774,7 +4696,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>C37744360</t>
+          <t>C39280364</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -4782,12 +4704,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Nc1ccc2nc([N-]S(=O)(=O)c3cn[nH]c3)sc2c1</t>
+          <t>Cc1ccc(C2=C[C@H]([C@H]3NN[C@H](S)N3N)N=N2)cc1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Nc1ccc2nc([N-]S(=O)(=O)c3cn[nH]c3)sc2c1</t>
+          <t>Cc1ccc(C2=C[C@H]([C@H]3NN[C@H](S)N3N)N=N2)cc1</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -4801,25 +4723,25 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>294.34</v>
+        <v>276.37</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I63" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K63" t="n">
         <v>3</v>
       </c>
       <c r="L63" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>115.83</v>
+        <v>78.04000000000001</v>
       </c>
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr"/>
@@ -4830,7 +4752,7 @@
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135993CA0&gt;</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
@@ -4842,7 +4764,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>C54396352</t>
+          <t>C37744360</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -4850,12 +4772,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>N/C(=N/O)c1nccnc1Sc1nccc([O-])n1</t>
+          <t>Nc1ccc2nc([N-]S(=O)(=O)c3cn[nH]c3)sc2c1</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>N/C(=N/O)c1nccnc1Sc1nccc([O-])n1</t>
+          <t>Nc1ccc2nc([N-]S(=O)(=O)c3cn[nH]c3)sc2c1</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -4869,25 +4791,25 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>263.26</v>
+        <v>294.34</v>
       </c>
       <c r="H64" t="n">
         <v>2</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J64" t="n">
         <v>3</v>
       </c>
       <c r="K64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>133.23</v>
+        <v>115.83</v>
       </c>
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
@@ -4898,7 +4820,7 @@
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135993F40&gt;</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
@@ -4910,7 +4832,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>C62843866</t>
+          <t>C54396352</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -4918,12 +4840,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>CC1(C(=O)[O-])CCN(C(=O)NC(C)(C)C(N)=O)CC1</t>
+          <t>N/C(=N/O)c1nccnc1Sc1nccc([O-])n1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>CC1(C(=O)[O-])CCN(C(=O)NC(C)(C)C(N)=O)CC1</t>
+          <t>N/C(=N/O)c1nccnc1Sc1nccc([O-])n1</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -4937,25 +4859,25 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>270.31</v>
+        <v>263.26</v>
       </c>
       <c r="H65" t="n">
         <v>2</v>
       </c>
       <c r="I65" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J65" t="n">
         <v>3</v>
       </c>
       <c r="K65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M65" t="n">
-        <v>115.56</v>
+        <v>133.23</v>
       </c>
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
@@ -4966,7 +4888,7 @@
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7220&gt;</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
@@ -4978,7 +4900,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>C40282571</t>
+          <t>C62843866</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4986,12 +4908,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccc([C@H](Br)c3ccc(Cl)cc3F)cc2[nH]1</t>
+          <t>CC1(C(=O)[O-])CCN(C(=O)NC(C)(C)C(N)=O)CC1</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>O=c1[nH]c2ccc([C@H](Br)c3ccc(Cl)cc3F)cc2[nH]1</t>
+          <t>CC1(C(=O)[O-])CCN(C(=O)NC(C)(C)C(N)=O)CC1</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -5005,25 +4927,25 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>355.59</v>
+        <v>270.31</v>
       </c>
       <c r="H66" t="n">
         <v>2</v>
       </c>
       <c r="I66" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K66" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M66" t="n">
-        <v>48.65</v>
+        <v>115.56</v>
       </c>
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr"/>
@@ -5034,7 +4956,7 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5850&gt;</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
@@ -5046,7 +4968,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>C13285055</t>
+          <t>C01504771</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -5054,12 +4976,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Nc1nc(N)c(-c2ccc(Cl)c(Cl)c2)c(/C=C/C=C/c2ccccc2)n1</t>
+          <t>Brc1cc(N/C=C2\C=Nc3ccccc32)cc2c1OCCO2</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Nc1nc(N)c(-c2ccc(Cl)c(Cl)c2)c(/C=C/C=C/c2ccccc2)n1</t>
+          <t>Brc1cc(N/C=C2\C=Nc3ccccc32)cc2c1OCCO2</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -5073,25 +4995,25 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>383.28</v>
+        <v>357.21</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M67" t="n">
-        <v>77.81999999999999</v>
+        <v>42.85</v>
       </c>
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr"/>
@@ -5102,7 +5024,7 @@
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5CB0&gt;</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
@@ -5114,7 +5036,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>C38634202</t>
+          <t>C40282571</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -5122,12 +5044,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>CC(C)Cc1cc(N)c2c(c1O)C(=O)c1c(O)c(CC(C)C)cc(N)c1C2=O</t>
+          <t>O=c1[nH]c2ccc([C@H](Br)c3ccc(Cl)cc3F)cc2[nH]1</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>CC(C)Cc1cc(N)c2c(c1O)C(=O)c1c(O)c(CC(C)C)cc(N)c1C2=O</t>
+          <t>O=c1[nH]c2ccc([C@H](Br)c3ccc(Cl)cc3F)cc2[nH]1</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -5141,16 +5063,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>382.46</v>
+        <v>355.59</v>
       </c>
       <c r="H68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I68" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K68" t="n">
         <v>3</v>
@@ -5159,7 +5081,7 @@
         <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>126.64</v>
+        <v>48.65</v>
       </c>
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr"/>
@@ -5170,7 +5092,7 @@
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6260&gt;</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
@@ -5182,7 +5104,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>C05469905</t>
+          <t>C38634202</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -5190,12 +5112,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>CCC[C@H]1CCc2c(sc(NC(=O)NC3CCCCC3)c2C(N)=O)C1</t>
+          <t>CC(C)Cc1cc(N)c2c(c1O)C(=O)c1c(O)c(CC(C)C)cc(N)c1C2=O</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>CCC[C@H]1CCc2c(sc(NC(=O)NC3CCCCC3)c2C(N)=O)C1</t>
+          <t>CC(C)Cc1cc(N)c2c(c1O)C(=O)c1c(O)c(CC(C)C)cc(N)c1C2=O</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -5209,25 +5131,25 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>363.53</v>
+        <v>382.46</v>
       </c>
       <c r="H69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I69" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K69" t="n">
         <v>3</v>
       </c>
       <c r="L69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M69" t="n">
-        <v>84.22</v>
+        <v>126.64</v>
       </c>
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
@@ -5238,7 +5160,7 @@
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7990&gt;</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
@@ -5250,7 +5172,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>C00137465</t>
+          <t>C13110957</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -5258,12 +5180,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>S=C(NNC(=S)N[C@@H]1C[C@H]2C=C[C@@H]1C2)N[C@@H]1C[C@H]2CC[C@@H]1C2</t>
+          <t>[NH2+]=C(Nc1nc(=O)c2c([nH]1)CCCC2)Nc1ccccc1Sc1ccccc1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>S=C(NNC(=S)N[C@@H]1C[C@H]2CC[C@@H]1C2)N[C@@H]1C[C@H]2C=C[C@@H]1C2</t>
+          <t>[NH2+]=C(Nc1nc(=O)c2c([nH]1)CCCC2)Nc1ccccc1Sc1ccccc1</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -5277,25 +5199,25 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>336.53</v>
+        <v>392.51</v>
       </c>
       <c r="H70" t="n">
         <v>4</v>
       </c>
       <c r="I70" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K70" t="n">
         <v>4</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M70" t="n">
-        <v>48.12</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
@@ -5306,7 +5228,7 @@
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A84A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6960&gt;</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
@@ -5318,7 +5240,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>C01240346</t>
+          <t>C00137465</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -5326,12 +5248,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>CC1=CC(C(F)(F)F)(C(F)(F)F)C(C#N)=C(N)N1c1ccc(S(N)(=O)=O)cc1</t>
+          <t>S=C(NNC(=S)N[C@@H]1C[C@H]2C=C[C@@H]1C2)N[C@@H]1C[C@H]2CC[C@@H]1C2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>CC1=CC(C(F)(F)F)(C(F)(F)F)C(C#N)=C(N)N1c1ccc(S(N)(=O)=O)cc1</t>
+          <t>S=C(NNC(=S)N[C@@H]1C[C@H]2CC[C@@H]1C2)N[C@@H]1C[C@H]2C=C[C@@H]1C2</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -5345,25 +5267,25 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>426.34</v>
+        <v>336.53</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I71" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J71" t="n">
         <v>2</v>
       </c>
       <c r="K71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M71" t="n">
-        <v>113.21</v>
+        <v>48.12</v>
       </c>
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr"/>
@@ -5374,7 +5296,7 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5E70&gt;</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
@@ -5386,7 +5308,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>C05941376</t>
+          <t>C04795487</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -5394,12 +5316,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>C/C(CC(O)(C(F)(F)Cl)C(F)(F)Cl)=N/NC(N)=S</t>
+          <t>Cc1c/c(=N/N2C(=[NH2+])CSC2=S)nc(N[C@@H](O)C(Cl)(Cl)Cl)[n-]1</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>C/C(CC(O)(C(F)(F)Cl)C(F)(F)Cl)=N/NC(N)=S</t>
+          <t>Cc1c/c(=N/N2C(=[NH2+])CSC2=S)nc(N[C@@H](O)C(Cl)(Cl)Cl)[n-]1</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -5413,25 +5335,25 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>330.13</v>
+        <v>401.73</v>
       </c>
       <c r="H72" t="n">
         <v>3</v>
       </c>
       <c r="I72" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M72" t="n">
-        <v>70.64</v>
+        <v>100.44</v>
       </c>
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr"/>
@@ -5442,7 +5364,7 @@
       <c r="T72" t="inlineStr"/>
       <c r="U72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB370&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD51C0&gt;</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
@@ -5454,7 +5376,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>C49526867</t>
+          <t>C01240346</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -5462,12 +5384,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1ccc(C(N)=S)cn1)c1ccc(Br)cc1</t>
+          <t>CC1=CC(C(F)(F)F)(C(F)(F)F)C(C#N)=C(N)N1c1ccc(S(N)(=O)=O)cc1</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>C[C@@H](Nc1ccc(C(N)=S)cn1)c1ccc(Br)cc1</t>
+          <t>CC1=CC(C(F)(F)F)(C(F)(F)F)C(C#N)=C(N)N1c1ccc(S(N)(=O)=O)cc1</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -5481,25 +5403,25 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>336.26</v>
+        <v>426.34</v>
       </c>
       <c r="H73" t="n">
         <v>2</v>
       </c>
       <c r="I73" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K73" t="n">
         <v>2</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M73" t="n">
-        <v>50.94</v>
+        <v>113.21</v>
       </c>
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr"/>
@@ -5510,7 +5432,7 @@
       <c r="T73" t="inlineStr"/>
       <c r="U73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD4C10&gt;</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
@@ -5522,7 +5444,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>C19796104</t>
+          <t>C05044855</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -5530,12 +5452,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>CC[NH+](CC)CC/[NH+]=c1\ccc(CO)c2sc3ccccc3c(O)c1-2</t>
+          <t>CCCCc1[nH]nc2c1[C@@H](c1c[nH]c3ccccc13)C(C#N)=C(N)O2</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>CC[NH+](CC)CC/[NH+]=c1\ccc(CO)c2sc3ccccc3c(O)c1-2</t>
+          <t>CCCCc1[nH]nc2c1[C@@H](c1c[nH]c3ccccc13)C(C#N)=C(N)O2</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -5549,25 +5471,25 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>358.51</v>
+        <v>333.4</v>
       </c>
       <c r="H74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="K74" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L74" t="n">
         <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>58.87</v>
+        <v>103.51</v>
       </c>
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr"/>
@@ -5578,7 +5500,7 @@
       <c r="T74" t="inlineStr"/>
       <c r="U74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB610&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD4430&gt;</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
@@ -5590,7 +5512,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>C35365982</t>
+          <t>C05941376</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -5598,12 +5520,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>OC[C@@H](O)[C@@H](O)[C@H](O)[C@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
+          <t>C/C(CC(O)(C(F)(F)Cl)C(F)(F)Cl)=N/NC(N)=S</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>OC[C@@H](O)[C@@H](O)[C@H](O)[C@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
+          <t>C/C(CC(O)(C(F)(F)Cl)C(F)(F)Cl)=N/NC(N)=S</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -5617,25 +5539,25 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>427.52</v>
+        <v>330.13</v>
       </c>
       <c r="H75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J75" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="K75" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="L75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M75" t="n">
-        <v>108.83</v>
+        <v>70.64</v>
       </c>
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr"/>
@@ -5646,7 +5568,7 @@
       <c r="T75" t="inlineStr"/>
       <c r="U75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB760&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD45F0&gt;</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
@@ -5658,7 +5580,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>C44713964</t>
+          <t>C19796104</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -5666,12 +5588,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>CSCCC(=O)N1C[C@@H](C(=O)N[C@@H](C)c2c(C)n[nH]c2C)C2(CC[NH2+]CC2)C1</t>
+          <t>CC[NH+](CC)CC/[NH+]=c1\ccc(CO)c2sc3ccccc3c(O)c1-2</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>CSCCC(=O)N1C[C@@H](C(=O)N[C@@H](C)c2c(C)n[nH]c2C)C2(CC[NH2+]CC2)C1</t>
+          <t>CC[NH+](CC)CC/[NH+]=c1\ccc(CO)c2sc3ccccc3c(O)c1-2</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -5685,13 +5607,13 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>408.59</v>
+        <v>358.51</v>
       </c>
       <c r="H76" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J76" t="n">
         <v>6</v>
@@ -5700,10 +5622,10 @@
         <v>3</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M76" t="n">
-        <v>94.7</v>
+        <v>58.87</v>
       </c>
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr"/>
@@ -5714,7 +5636,7 @@
       <c r="T76" t="inlineStr"/>
       <c r="U76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABA00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6880&gt;</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
@@ -5726,7 +5648,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>C44248838</t>
+          <t>C40725818</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -5734,12 +5656,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[H]/N=C1/O[C@@H](c2ccccc2)C(c2ccccc2)=C1C[NH3+]</t>
+          <t>Cc1cccc(Nc2ncnc(NCCc3ccccc3)c2N)c1C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[H]/N=C1/O[C@@H](c2ccccc2)C(c2ccccc2)=C1C[NH3+]</t>
+          <t>Cc1cccc(Nc2ncnc(NCCc3ccccc3)c2N)c1C</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -5753,25 +5675,25 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>265.34</v>
+        <v>333.44</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J77" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K77" t="n">
         <v>3</v>
       </c>
       <c r="L77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M77" t="n">
-        <v>60.72</v>
+        <v>75.86</v>
       </c>
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr"/>
@@ -5782,7 +5704,7 @@
       <c r="T77" t="inlineStr"/>
       <c r="U77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABAE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6730&gt;</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
@@ -5794,7 +5716,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>C49931106</t>
+          <t>C35442730</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -5802,12 +5724,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>CC(C)[NH+]1C[C@H]2CCC[C@@H](C1)C2[NH2+][C@@H]1CC[NH+](C2CC2)C1</t>
+          <t>COc1ccccc1C[NH2+]C[C@@H]1C=C(C)[C@H](Cc2nnc(-c3cncn3C)o2)C[C@H]1C(C)C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>CC(C)[NH+]1C[C@@H]2CCC[C@H](C1)C2[NH2+][C@@H]1CC[NH+](C2CC2)C1</t>
+          <t>COc1ccccc1C[NH2+]C[C@@H]1C=C(C)[C@H](Cc2nnc(-c3cncn3C)o2)C[C@H]1C(C)C</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -5821,25 +5743,25 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>294.51</v>
+        <v>450.61</v>
       </c>
       <c r="H78" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J78" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="K78" t="n">
         <v>4</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M78" t="n">
-        <v>25.49</v>
+        <v>82.58</v>
       </c>
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr"/>
@@ -5850,7 +5772,7 @@
       <c r="T78" t="inlineStr"/>
       <c r="U78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD61F0&gt;</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
@@ -5862,7 +5784,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>C13471091</t>
+          <t>C35365982</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -5870,12 +5792,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>C[NH+]1CCC=C(c2nsnc2OCCCCCCCOc2nsnc2C2=CCC[NH+](C)C2)C1</t>
+          <t>OC[C@@H](O)[C@@H](O)[C@H](O)[C@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>C[NH+]1CCC=C(c2nsnc2OCCCCCCCOc2nsnc2C2=CCC[NH+](C)C2)C1</t>
+          <t>OC[C@@H](O)[C@@H](O)[C@H](O)[C@H]1N2C[C@@]3(c4ccccc4)C[NH+]1C[C@@](c1ccccc1)(C2)C3O</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -5889,25 +5811,25 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>492.72</v>
+        <v>427.52</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I79" t="n">
         <v>6</v>
       </c>
       <c r="J79" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="K79" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L79" t="n">
         <v>2</v>
       </c>
       <c r="M79" t="n">
-        <v>78.90000000000001</v>
+        <v>108.83</v>
       </c>
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr"/>
@@ -5918,7 +5840,7 @@
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABD10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5F50&gt;</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
@@ -5930,7 +5852,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>C20343641</t>
+          <t>C44713964</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -5938,12 +5860,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Cc1[nH]nc2c1[C@@]1(C(=O)N2)c2cc(Br)ccc2-c2oc(N)nc21</t>
+          <t>CSCCC(=O)N1C[C@@H](C(=O)N[C@@H](C)c2c(C)n[nH]c2C)C2(CC[NH2+]CC2)C1</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Cc1[nH]nc2c1[C@@]1(C(=O)N2)c2cc(Br)ccc2-c2oc(N)nc21</t>
+          <t>CSCCC(=O)N1C[C@@H](C(=O)N[C@@H](C)c2c(C)n[nH]c2C)C2(CC[NH2+]CC2)C1</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -5957,25 +5879,25 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>372.18</v>
+        <v>408.59</v>
       </c>
       <c r="H80" t="n">
         <v>3</v>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K80" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M80" t="n">
-        <v>109.83</v>
+        <v>94.7</v>
       </c>
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr"/>
@@ -5986,7 +5908,7 @@
       <c r="T80" t="inlineStr"/>
       <c r="U80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABED0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD71B0&gt;</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
@@ -5998,7 +5920,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>C09210443</t>
+          <t>C44248838</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -6006,12 +5928,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CC[NH+](CC)CCCNc1nc(SC)nc2c1sc1nc(C(C)C)c3c(c12)CC(C)(C)OC3</t>
+          <t>[H]/N=C1/O[C@@H](c2ccccc2)C(c2ccccc2)=C1C[NH3+]</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>CC[NH+](CC)CCCNc1nc(SC)nc2c1sc1nc(C(C)C)c3c(c12)CC(C)(C)OC3</t>
+          <t>[H]/N=C1/O[C@@H](c2ccccc2)C(c2ccccc2)=C1C[NH3+]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -6025,25 +5947,25 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>488.75</v>
+        <v>265.34</v>
       </c>
       <c r="H81" t="n">
         <v>2</v>
       </c>
       <c r="I81" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="J81" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="K81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M81" t="n">
-        <v>64.37</v>
+        <v>60.72</v>
       </c>
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr"/>
@@ -6054,7 +5976,7 @@
       <c r="T81" t="inlineStr"/>
       <c r="U81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5770&gt;</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
@@ -6066,7 +5988,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>C38893897</t>
+          <t>C10505327</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -6074,12 +5996,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>O=C(NCCSCc1cccc(Cl)c1)[C@H]1CCC[NH+](Cc2nc(-c3ccc(F)cc3)no2)C1</t>
+          <t>CC(=O)NS(=O)(=O)c1ccc(NC(=S)NC(=O)c2cc(Cl)cc(Cl)c2)cc1</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>O=C(NCCSCc1cccc(Cl)c1)[C@H]1CCC[NH+](Cc2nc(-c3ccc(F)cc3)no2)C1</t>
+          <t>CC(=O)NS(=O)(=O)c1ccc(NC(=S)NC(=O)c2cc(Cl)cc(Cl)c2)cc1</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -6093,25 +6015,25 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>490.02</v>
+        <v>446.34</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I82" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J82" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="K82" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M82" t="n">
-        <v>72.45999999999999</v>
+        <v>104.37</v>
       </c>
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr"/>
@@ -6122,7 +6044,7 @@
       <c r="T82" t="inlineStr"/>
       <c r="U82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A82E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5700&gt;</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
@@ -6134,7 +6056,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>C63348927</t>
+          <t>C13471091</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -6142,12 +6064,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>N[C@H]1c2cccnc2S[C@@H]1c1nnc([S-])n1C1CC1</t>
+          <t>C[NH+]1CCC=C(c2nsnc2OCCCCCCCOc2nsnc2C2=CCC[NH+](C)C2)C1</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>N[C@H]1c2cccnc2S[C@@H]1c1nnc([S-])n1C1CC1</t>
+          <t>C[NH+]1CCC=C(c2nsnc2OCCCCCCCOc2nsnc2C2=CCC[NH+](C)C2)C1</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -6161,16 +6083,16 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>290.4</v>
+        <v>492.72</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I83" t="n">
         <v>6</v>
       </c>
       <c r="J83" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K83" t="n">
         <v>4</v>
@@ -6179,7 +6101,7 @@
         <v>2</v>
       </c>
       <c r="M83" t="n">
-        <v>69.62</v>
+        <v>78.90000000000001</v>
       </c>
       <c r="N83" t="inlineStr"/>
       <c r="O83" t="inlineStr"/>
@@ -6190,7 +6112,7 @@
       <c r="T83" t="inlineStr"/>
       <c r="U83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5380&gt;</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
@@ -6202,7 +6124,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>C38120536</t>
+          <t>C20343641</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -6210,12 +6132,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCC[C@@]1(C[O-])[NH+]1CCNCC1</t>
+          <t>Cc1[nH]nc2c1[C@@]1(C(=O)N2)c2cc(Br)ccc2-c2oc(N)nc21</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>C[C@@H]1CCCC[C@@]1(C[O-])[NH+]1CCNCC1</t>
+          <t>Cc1[nH]nc2c1[C@@]1(C(=O)N2)c2cc(Br)ccc2-c2oc(N)nc21</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -6229,25 +6151,25 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>212.34</v>
+        <v>372.18</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K84" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M84" t="n">
-        <v>39.53</v>
+        <v>109.83</v>
       </c>
       <c r="N84" t="inlineStr"/>
       <c r="O84" t="inlineStr"/>
@@ -6258,7 +6180,7 @@
       <c r="T84" t="inlineStr"/>
       <c r="U84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5C40&gt;</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
@@ -6270,7 +6192,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>C06691135</t>
+          <t>C09210443</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -6278,12 +6200,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>O/N=C(Br)\C(Br)=N/O</t>
+          <t>CC[NH+](CC)CCCNc1nc(SC)nc2c1sc1nc(C(C)C)c3c(c12)CC(C)(C)OC3</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>O/N=C(Br)\C(Br)=N/O</t>
+          <t>CC[NH+](CC)CCCNc1nc(SC)nc2c1sc1nc(C(C)C)c3c(c12)CC(C)(C)OC3</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -6297,25 +6219,25 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>245.86</v>
+        <v>488.75</v>
       </c>
       <c r="H85" t="n">
         <v>2</v>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M85" t="n">
-        <v>65.18000000000001</v>
+        <v>64.37</v>
       </c>
       <c r="N85" t="inlineStr"/>
       <c r="O85" t="inlineStr"/>
@@ -6326,7 +6248,7 @@
       <c r="T85" t="inlineStr"/>
       <c r="U85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6340&gt;</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
@@ -6338,7 +6260,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>C61628376</t>
+          <t>C63348927</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -6346,12 +6268,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>NCC#Cc1ccc(Cn2ccc(=O)cc2)s1</t>
+          <t>N[C@H]1c2cccnc2S[C@@H]1c1nnc([S-])n1C1CC1</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>NCC#Cc1ccc(Cn2ccc(=O)cc2)s1</t>
+          <t>N[C@H]1c2cccnc2S[C@@H]1c1nnc([S-])n1C1CC1</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -6365,25 +6287,25 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>244.32</v>
+        <v>290.4</v>
       </c>
       <c r="H86" t="n">
         <v>1</v>
       </c>
       <c r="I86" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="J86" t="n">
         <v>2</v>
       </c>
       <c r="K86" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L86" t="n">
         <v>2</v>
       </c>
       <c r="M86" t="n">
-        <v>48.02</v>
+        <v>69.62</v>
       </c>
       <c r="N86" t="inlineStr"/>
       <c r="O86" t="inlineStr"/>
@@ -6394,7 +6316,7 @@
       <c r="T86" t="inlineStr"/>
       <c r="U86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB3E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6B20&gt;</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
@@ -6406,7 +6328,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>C66089423</t>
+          <t>C38120536</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -6414,12 +6336,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>NC(=S)N1C[C@@H]2C[C@H](C1)c1cccc(=O)n1C2</t>
+          <t>C[C@@H]1CCCC[C@@]1(C[O-])[NH+]1CCNCC1</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>NC(=S)N1C[C@@H]2C[C@H](C1)c1cccc(=O)n1C2</t>
+          <t>C[C@@H]1CCCC[C@@]1(C[O-])[NH+]1CCNCC1</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -6433,25 +6355,25 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>249.34</v>
+        <v>212.34</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87" t="n">
-        <v>51.26</v>
+        <v>39.53</v>
       </c>
       <c r="N87" t="inlineStr"/>
       <c r="O87" t="inlineStr"/>
@@ -6462,7 +6384,7 @@
       <c r="T87" t="inlineStr"/>
       <c r="U87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB530&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7370&gt;</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
@@ -6474,7 +6396,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>C20720251</t>
+          <t>C06691135</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -6482,12 +6404,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>OC1=Nc2n[nH]cc2[C@@H](c2ccsc2)C1</t>
+          <t>O/N=C(Br)\C(Br)=N/O</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>OC1=Nc2n[nH]cc2[C@@H](c2ccsc2)C1</t>
+          <t>O/N=C(Br)\C(Br)=N/O</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -6501,7 +6423,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>219.27</v>
+        <v>245.86</v>
       </c>
       <c r="H88" t="n">
         <v>2</v>
@@ -6513,13 +6435,13 @@
         <v>1</v>
       </c>
       <c r="K88" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M88" t="n">
-        <v>61.27</v>
+        <v>65.18000000000001</v>
       </c>
       <c r="N88" t="inlineStr"/>
       <c r="O88" t="inlineStr"/>
@@ -6530,7 +6452,7 @@
       <c r="T88" t="inlineStr"/>
       <c r="U88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6C00&gt;</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
@@ -6542,7 +6464,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>C00407081</t>
+          <t>C61628376</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -6550,12 +6472,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>C1CCC2(CC1)OCCO2</t>
+          <t>NCC#Cc1ccc(Cn2ccc(=O)cc2)s1</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>C1CCC2(CC1)OCCO2</t>
+          <t>NCC#Cc1ccc(Cn2ccc(=O)cc2)s1</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -6569,25 +6491,25 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>142.2</v>
+        <v>244.32</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K89" t="n">
         <v>2</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M89" t="n">
-        <v>18.46</v>
+        <v>48.02</v>
       </c>
       <c r="N89" t="inlineStr"/>
       <c r="O89" t="inlineStr"/>
@@ -6598,7 +6520,7 @@
       <c r="T89" t="inlineStr"/>
       <c r="U89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7D80&gt;</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
@@ -6666,7 +6588,7 @@
       <c r="T90" t="inlineStr"/>
       <c r="U90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6FF0&gt;</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
@@ -6734,7 +6656,7 @@
       <c r="T91" t="inlineStr"/>
       <c r="U91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7530&gt;</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
@@ -6802,7 +6724,7 @@
       <c r="T92" t="inlineStr"/>
       <c r="U92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A9460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD66C0&gt;</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
@@ -6870,7 +6792,7 @@
       <c r="T93" t="inlineStr"/>
       <c r="U93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7A70&gt;</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
@@ -6938,7 +6860,7 @@
       <c r="T94" t="inlineStr"/>
       <c r="U94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5D20&gt;</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
@@ -7006,7 +6928,7 @@
       <c r="T95" t="inlineStr"/>
       <c r="U95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8660&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD4120&gt;</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
@@ -7074,7 +6996,7 @@
       <c r="T96" t="inlineStr"/>
       <c r="U96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7680&gt;</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
@@ -7142,7 +7064,7 @@
       <c r="T97" t="inlineStr"/>
       <c r="U97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A83C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6F80&gt;</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
@@ -7210,7 +7132,7 @@
       <c r="T98" t="inlineStr"/>
       <c r="U98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6650&gt;</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
@@ -7278,7 +7200,7 @@
       <c r="T99" t="inlineStr"/>
       <c r="U99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD57E0&gt;</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
@@ -7346,7 +7268,7 @@
       <c r="T100" t="inlineStr"/>
       <c r="U100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB7D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD62D0&gt;</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
@@ -7414,7 +7336,7 @@
       <c r="T101" t="inlineStr"/>
       <c r="U101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB840&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7A00&gt;</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
@@ -7482,7 +7404,7 @@
       <c r="T102" t="inlineStr"/>
       <c r="U102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD76F0&gt;</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
@@ -7550,7 +7472,7 @@
       <c r="T103" t="inlineStr"/>
       <c r="U103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB990&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6DC0&gt;</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
@@ -7618,7 +7540,7 @@
       <c r="T104" t="inlineStr"/>
       <c r="U104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5620&gt;</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
@@ -7686,7 +7608,7 @@
       <c r="T105" t="inlineStr"/>
       <c r="U105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD4EB0&gt;</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
@@ -7754,7 +7676,7 @@
       <c r="T106" t="inlineStr"/>
       <c r="U106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABBC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7610&gt;</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
@@ -7822,7 +7744,7 @@
       <c r="T107" t="inlineStr"/>
       <c r="U107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7140&gt;</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
@@ -7890,7 +7812,7 @@
       <c r="T108" t="inlineStr"/>
       <c r="U108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABDF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD67A0&gt;</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
@@ -7958,7 +7880,7 @@
       <c r="T109" t="inlineStr"/>
       <c r="U109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABE60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD65E0&gt;</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
@@ -8026,7 +7948,7 @@
       <c r="T110" t="inlineStr"/>
       <c r="U110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A85F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5A80&gt;</t>
         </is>
       </c>
       <c r="V110" t="inlineStr">
@@ -8038,7 +7960,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>C27586887</t>
+          <t>C01829142</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -8046,12 +7968,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Cc1nc(/N=N/Nc2ccc(-c3ccc(/N=N/Nc4nc(C)c(C)s4)cc3)cc2)sc1C</t>
+          <t>CCCCN(C)c1ncnc2c1sc1[nH+]c(N3CCCCC3)c3c(c12)CCCC3</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>Cc1nc(/N=N/Nc2ccc(-c3ccc(/N=N/Nc4nc(C)c(C)s4)cc3)cc2)sc1C</t>
+          <t>CCCCN(C)c1ncnc2c1sc1[nH+]c(N3CCCCC3)c3c(c12)CCCC3</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -8065,25 +7987,25 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>462.61</v>
+        <v>410.61</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>4</v>
       </c>
       <c r="J111" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K111" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L111" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M111" t="n">
-        <v>99.28</v>
+        <v>46.4</v>
       </c>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="inlineStr"/>
@@ -8094,7 +8016,7 @@
       <c r="T111" t="inlineStr"/>
       <c r="U111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5A10&gt;</t>
         </is>
       </c>
       <c r="V111" t="inlineStr">
@@ -8106,7 +8028,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>C39947080</t>
+          <t>C39738097</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -8114,12 +8036,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)Nc1ccc(CC2=NO[C@H](C3=CC4=C(CC[NH3+])C=N[C@H]4C=C3)N2)cc1</t>
+          <t>O=S(=O)([O-])c1cc(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)c(O)c2ccccc12</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)Nc1ccc(CC2=NO[C@H](C3=CC4=C(CC[NH3+])C=N[C@H]4C=C3)N2)cc1</t>
+          <t>O=S(=O)([O-])c1cc(/N=N/c2cccc(/C=C/C3[NH+]=c4ccccc4=[NH+]3)c2)c(O)c2ccccc12</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -8133,7 +8055,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>414.51</v>
+        <v>471.52</v>
       </c>
       <c r="H112" t="n">
         <v>3</v>
@@ -8142,16 +8064,16 @@
         <v>4</v>
       </c>
       <c r="J112" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K112" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M112" t="n">
-        <v>119.79</v>
+        <v>130.09</v>
       </c>
       <c r="N112" t="inlineStr"/>
       <c r="O112" t="inlineStr"/>
@@ -8162,7 +8084,7 @@
       <c r="T112" t="inlineStr"/>
       <c r="U112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33A8890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD55B0&gt;</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
@@ -8174,7 +8096,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>C28963811</t>
+          <t>C39586055</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -8182,12 +8104,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C[NH+](C)Cc1ccn2c(-c3ccnc(N)n3)c(-c3ccc(F)c(Br)c3)nc2c1</t>
+          <t>Cc1cccc(-n2ccnc2SCC(=O)/[NH+]=C2\C=C3N=C([O-])N=C3C=C2Br)c1</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>C[NH+](C)Cc1ccn2c(-c3ccnc(N)n3)c(-c3ccc(F)c(Br)c3)nc2c1</t>
+          <t>Cc1cccc(-n2ccnc2SCC(=O)/[NH+]=C2\C=C3N=C([O-])N=C3C=C2Br)c1</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -8201,10 +8123,10 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>442.32</v>
+        <v>456.33</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>4</v>
@@ -8216,10 +8138,10 @@
         <v>4</v>
       </c>
       <c r="L113" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M113" t="n">
-        <v>73.54000000000001</v>
+        <v>96.64</v>
       </c>
       <c r="N113" t="inlineStr"/>
       <c r="O113" t="inlineStr"/>
@@ -8230,7 +8152,7 @@
       <c r="T113" t="inlineStr"/>
       <c r="U113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB4C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD54D0&gt;</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
@@ -8242,7 +8164,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>C20504871</t>
+          <t>C28963811</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -8250,12 +8172,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>O=S(=O)([N-]c1c(Br)cc(Br)cc1Br)N1CC[NH2+]CC1</t>
+          <t>C[NH+](C)Cc1ccn2c(-c3ccnc(N)n3)c(-c3ccc(F)c(Br)c3)nc2c1</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>O=S(=O)([N-]c1c(Br)cc(Br)cc1Br)N1CC[NH2+]CC1</t>
+          <t>C[NH+](C)Cc1ccn2c(-c3ccnc(N)n3)c(-c3ccc(F)c(Br)c3)nc2c1</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -8269,25 +8191,25 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>478</v>
+        <v>442.32</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J114" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M114" t="n">
-        <v>68.09</v>
+        <v>73.54000000000001</v>
       </c>
       <c r="N114" t="inlineStr"/>
       <c r="O114" t="inlineStr"/>
@@ -8298,7 +8220,7 @@
       <c r="T114" t="inlineStr"/>
       <c r="U114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33AB680&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5000&gt;</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
@@ -8310,7 +8232,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>C44963251</t>
+          <t>C09263208</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -8318,12 +8240,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>C/C(=C\c1csc(C)n1)[C@H]1C[C@@H]2O[C@@H]2CCC[C@H](C)[C@H](O)[C@@H](C)C(=O)C(C)(C)[C@@H](O)CC(=O)O1</t>
+          <t>Cc1c(Cl)cccc1N1C(=O)/C(=C\c2cc(C)n(-c3ccc(O)cc3)c2C)C(=O)NC1=S</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>C/C(=C\c1csc(C)n1)[C@H]1C[C@@H]2O[C@@H]2CCC[C@H](C)[C@H](O)[C@@H](C)C(=O)C(C)(C)[C@@H](O)CC(=O)O1</t>
+          <t>Cc1c(Cl)cccc1N1C(=O)/C(=C\c2cc(C)n(-c3ccc(O)cc3)c2C)C(=O)NC1=S</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -8337,25 +8259,25 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>493.67</v>
+        <v>465.96</v>
       </c>
       <c r="H115" t="n">
         <v>2</v>
       </c>
       <c r="I115" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K115" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M115" t="n">
-        <v>109.25</v>
+        <v>74.56999999999999</v>
       </c>
       <c r="N115" t="inlineStr"/>
       <c r="O115" t="inlineStr"/>
@@ -8366,7 +8288,7 @@
       <c r="T115" t="inlineStr"/>
       <c r="U115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33ABCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD4DD0&gt;</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
@@ -8378,7 +8300,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>C08951352</t>
+          <t>C20504871</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -8386,12 +8308,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Oc1c(I)cc(I)cc1/C=N/c1cn[nH]n1</t>
+          <t>O=S(=O)([N-]c1c(Br)cc(Br)cc1Br)N1CC[NH2+]CC1</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>Oc1c(I)cc(I)cc1/C=N/c1cn[nH]n1</t>
+          <t>O=S(=O)([N-]c1c(Br)cc(Br)cc1Br)N1CC[NH2+]CC1</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -8405,25 +8327,25 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>439.98</v>
+        <v>478</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K116" t="n">
         <v>2</v>
       </c>
       <c r="L116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116" t="n">
-        <v>74.16</v>
+        <v>68.09</v>
       </c>
       <c r="N116" t="inlineStr"/>
       <c r="O116" t="inlineStr"/>
@@ -8434,7 +8356,7 @@
       <c r="T116" t="inlineStr"/>
       <c r="U116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6F10&gt;</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
@@ -8446,7 +8368,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>C35130596</t>
+          <t>C44963251</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -8454,12 +8376,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Cc1ccccc1-n1nc(C(C)(C)C)cc1NC(=O)CN(CC(C)C)C(=O)C1CCC1</t>
+          <t>C/C(=C\c1csc(C)n1)[C@H]1C[C@@H]2O[C@@H]2CCC[C@H](C)[C@H](O)[C@@H](C)C(=O)C(C)(C)[C@@H](O)CC(=O)O1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>Cc1ccccc1-n1nc(C(C)(C)C)cc1NC(=O)CN(CC(C)C)C(=O)C1CCC1</t>
+          <t>C/C(=C\c1csc(C)n1)[C@H]1C[C@@H]2O[C@@H]2CCC[C@H](C)[C@H](O)[C@@H](C)C(=O)C(C)(C)[C@@H](O)CC(=O)O1</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -8473,25 +8395,25 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>424.59</v>
+        <v>493.67</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I117" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J117" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K117" t="n">
         <v>3</v>
       </c>
       <c r="L117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M117" t="n">
-        <v>67.23</v>
+        <v>109.25</v>
       </c>
       <c r="N117" t="inlineStr"/>
       <c r="O117" t="inlineStr"/>
@@ -8502,7 +8424,7 @@
       <c r="T117" t="inlineStr"/>
       <c r="U117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4200&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6D50&gt;</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
@@ -8514,7 +8436,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>C67438698</t>
+          <t>C08951352</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -8522,12 +8444,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Cc1cc(C)cc([C@@H]2NC(=[NH2+])Nc3nc4cc5c(cc4n32)OCCCO5)c1</t>
+          <t>Oc1c(I)cc(I)cc1/C=N/c1cn[nH]n1</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>Cc1cc(C)cc([C@@H]2NC(=[NH2+])Nc3nc4cc5c(cc4n32)OCCCO5)c1</t>
+          <t>Oc1c(I)cc(I)cc1/C=N/c1cn[nH]n1</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -8541,25 +8463,25 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>364.43</v>
+        <v>439.98</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K118" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M118" t="n">
-        <v>85.93000000000001</v>
+        <v>74.16</v>
       </c>
       <c r="N118" t="inlineStr"/>
       <c r="O118" t="inlineStr"/>
@@ -8570,7 +8492,7 @@
       <c r="T118" t="inlineStr"/>
       <c r="U118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B42E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6810&gt;</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
@@ -8582,7 +8504,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>C08721617</t>
+          <t>C40068803</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -8590,12 +8512,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(/C=N/NC(=O)c2ccc([C@H]3SCC(=O)N3Cc3ccccc3)cc2)cc1OCC</t>
+          <t>C[C@H](NC(=O)N[C@@H](c1ccc(F)cc1)c1cccs1)c1ccc(-n2cncn2)cc1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>CCCOc1ccc(/C=N/NC(=O)c2ccc([C@H]3SCC(=O)N3Cc3ccccc3)cc2)cc1OCC</t>
+          <t>C[C@H](NC(=O)N[C@@H](c1ccc(F)cc1)c1cccs1)c1ccc(-n2cncn2)cc1</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -8609,25 +8531,25 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>517.65</v>
+        <v>421.5</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I119" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J119" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="K119" t="n">
         <v>4</v>
       </c>
       <c r="L119" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M119" t="n">
-        <v>80.23</v>
+        <v>71.84</v>
       </c>
       <c r="N119" t="inlineStr"/>
       <c r="O119" t="inlineStr"/>
@@ -8638,7 +8560,7 @@
       <c r="T119" t="inlineStr"/>
       <c r="U119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4580&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD75A0&gt;</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
@@ -8650,7 +8572,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>C43409572</t>
+          <t>C35099809</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -8658,12 +8580,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CC1=C[C@@H]2[C@]3(O)[C@H](C)[C@@H](O)[C@@]4(O)[C@@H]([C@H]3C=C(CO)C[C@@]2(O)C1=O)C4(C)C</t>
+          <t>C[C@@H]1CCCC[NH+]1CCCN(Cc1ccc2c(c1)OCO2)S(=O)(=O)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>CC1=C[C@H]2[C@@](O)(CC(CO)=C[C@@H]3[C@H]4C(C)(C)[C@@]4(O)[C@H](O)[C@@H](C)[C@]32O)C1=O</t>
+          <t>C[C@@H]1CCCC[NH+]1CCCN(Cc1ccc2c(c1)OCO2)S(=O)(=O)c1ccc(Br)cc1</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -8673,29 +8595,29 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>364.44</v>
+        <v>510.47</v>
       </c>
       <c r="H120" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K120" t="n">
         <v>4</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>118.22</v>
+        <v>60.28</v>
       </c>
       <c r="N120" t="inlineStr"/>
       <c r="O120" t="inlineStr"/>
@@ -8706,7 +8628,7 @@
       <c r="T120" t="inlineStr"/>
       <c r="U120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5BD0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6E30&gt;</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
@@ -8718,7 +8640,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>C40511723</t>
+          <t>C39916083</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -8726,12 +8648,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>O=c1[nH]c([O-])c([C@@H]2C[C@@H](O)[C@H](CO)O2)cc1I</t>
+          <t>CC1(C)CC(=O)C2=C(C1)N[C@H]1N[C@H](SCc3ccccc3Cl)NN1[C@H]2C1=CC=[NH+]C1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>O=c1[nH]c([O-])c([C@@H]2C[C@@H](O)[C@H](CO)O2)cc1I</t>
+          <t>CC1(C)CC(=O)C2=C(C1)N[C@H]1N[C@H](SCc3ccccc3Cl)NN1[C@H]2C1=CC=[NH+]C1</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -8741,29 +8663,29 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>352.1</v>
+        <v>445.01</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I121" t="n">
+        <v>6</v>
+      </c>
+      <c r="J121" t="n">
+        <v>4</v>
+      </c>
+      <c r="K121" t="n">
         <v>5</v>
       </c>
-      <c r="J121" t="n">
-        <v>2</v>
-      </c>
-      <c r="K121" t="n">
-        <v>2</v>
-      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
       <c r="M121" t="n">
-        <v>105.61</v>
+        <v>70.37</v>
       </c>
       <c r="N121" t="inlineStr"/>
       <c r="O121" t="inlineStr"/>
@@ -8774,7 +8696,7 @@
       <c r="T121" t="inlineStr"/>
       <c r="U121" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7C30&gt;</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
@@ -8786,7 +8708,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>C06057203</t>
+          <t>C08847732</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -8794,12 +8716,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>[H]/N=C1\NN/C(=N/[H])C1=NNc1c(Cl)cc(Cl)cc1Cl</t>
+          <t>COc1ccc(-c2c/c(=N\Nc3ccc4ccccc4n3)c3cc(C)cc(C)c3o2)cc1OC</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>[H]/N=C1\NN/C(=N/[H])C1=NNc1c(Cl)cc(Cl)cc1Cl</t>
+          <t>COc1ccc(-c2c/c(=N\Nc3ccc4ccccc4n3)c3cc(C)cc(C)c3o2)cc1OC</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -8809,29 +8731,29 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>Test</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G122" t="n">
-        <v>305.56</v>
+        <v>451.53</v>
       </c>
       <c r="H122" t="n">
+        <v>1</v>
+      </c>
+      <c r="I122" t="n">
         <v>5</v>
       </c>
-      <c r="I122" t="n">
-        <v>3</v>
-      </c>
       <c r="J122" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K122" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M122" t="n">
-        <v>96.15000000000001</v>
+        <v>68.88</v>
       </c>
       <c r="N122" t="inlineStr"/>
       <c r="O122" t="inlineStr"/>
@@ -8842,7 +8764,7 @@
       <c r="T122" t="inlineStr"/>
       <c r="U122" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7AE0&gt;</t>
         </is>
       </c>
       <c r="V122" t="inlineStr">
@@ -8854,7 +8776,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>C31155636</t>
+          <t>C43409572</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -8862,12 +8784,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>C=C(CC[C@H]1[C@]2(C)CC[C@H](O)C(C)(C)[C@@H]2CC[C@@]1(C)O)[C@@H](O)CO</t>
+          <t>CC1=C[C@@H]2[C@]3(O)[C@H](C)[C@@H](O)[C@@]4(O)[C@@H]([C@H]3C=C(CO)C[C@@]2(O)C1=O)C4(C)C</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>C=C(CC[C@@H]1[C@](C)(O)CC[C@H]2C(C)(C)[C@@H](O)CC[C@@]12C)[C@@H](O)CO</t>
+          <t>CC1=C[C@H]2[C@@](O)(CC(CO)=C[C@@H]3[C@H]4C(C)(C)[C@@]4(O)[C@H](O)[C@@H](C)[C@]32O)C1=O</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -8881,25 +8803,25 @@
         </is>
       </c>
       <c r="G123" t="n">
-        <v>340.5</v>
+        <v>364.44</v>
       </c>
       <c r="H123" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I123" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J123" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K123" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L123" t="n">
         <v>0</v>
       </c>
       <c r="M123" t="n">
-        <v>80.92</v>
+        <v>118.22</v>
       </c>
       <c r="N123" t="inlineStr"/>
       <c r="O123" t="inlineStr"/>
@@ -8910,7 +8832,7 @@
       <c r="T123" t="inlineStr"/>
       <c r="U123" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B45F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7760&gt;</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
@@ -8922,7 +8844,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>C62826894</t>
+          <t>C40511723</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -8930,12 +8852,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>O=C([O-])c1cccc(Br)c1NC(=O)[C@H]1C[C@H](O)C[NH2+]1</t>
+          <t>O=c1[nH]c([O-])c([C@@H]2C[C@@H](O)[C@H](CO)O2)cc1I</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>O=C([O-])c1cccc(Br)c1NC(=O)[C@H]1C[C@H](O)C[NH2+]1</t>
+          <t>O=c1[nH]c([O-])c([C@@H]2C[C@@H](O)[C@H](CO)O2)cc1I</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -8949,16 +8871,16 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>329.15</v>
+        <v>352.1</v>
       </c>
       <c r="H124" t="n">
         <v>3</v>
       </c>
       <c r="I124" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J124" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K124" t="n">
         <v>2</v>
@@ -8967,7 +8889,7 @@
         <v>1</v>
       </c>
       <c r="M124" t="n">
-        <v>106.07</v>
+        <v>105.61</v>
       </c>
       <c r="N124" t="inlineStr"/>
       <c r="O124" t="inlineStr"/>
@@ -8978,7 +8900,7 @@
       <c r="T124" t="inlineStr"/>
       <c r="U124" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD68F0&gt;</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
@@ -8990,7 +8912,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>C06557156</t>
+          <t>C06057203</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -8998,12 +8920,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Cn1nc2c(c1-c1nnc([S-])n1N)CCCC2</t>
+          <t>[H]/N=C1\NN/C(=N/[H])C1=NNc1c(Cl)cc(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>Cn1nc2c(c1-c1nnc([S-])n1N)CCCC2</t>
+          <t>[H]/N=C1\NN/C(=N/[H])C1=NNc1c(Cl)cc(Cl)cc1Cl</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -9017,25 +8939,25 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>249.32</v>
+        <v>305.56</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I125" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125" t="n">
-        <v>74.55</v>
+        <v>96.15000000000001</v>
       </c>
       <c r="N125" t="inlineStr"/>
       <c r="O125" t="inlineStr"/>
@@ -9046,7 +8968,7 @@
       <c r="T125" t="inlineStr"/>
       <c r="U125" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD47B0&gt;</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
@@ -9058,7 +8980,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>C00397831</t>
+          <t>C31155636</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -9066,12 +8988,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>C1CC[C@@H]2OCOC[C@H]2C1</t>
+          <t>C=C(CC[C@H]1[C@]2(C)CC[C@H](O)C(C)(C)[C@@H]2CC[C@@]1(C)O)[C@@H](O)CO</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>C1CC[C@@H]2COCO[C@H]2C1</t>
+          <t>C=C(CC[C@@H]1[C@](C)(O)CC[C@H]2C(C)(C)[C@@H](O)CC[C@@]12C)[C@@H](O)CO</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -9085,16 +9007,16 @@
         </is>
       </c>
       <c r="G126" t="n">
-        <v>142.2</v>
+        <v>340.5</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K126" t="n">
         <v>2</v>
@@ -9103,7 +9025,7 @@
         <v>0</v>
       </c>
       <c r="M126" t="n">
-        <v>18.46</v>
+        <v>80.92</v>
       </c>
       <c r="N126" t="inlineStr"/>
       <c r="O126" t="inlineStr"/>
@@ -9114,7 +9036,7 @@
       <c r="T126" t="inlineStr"/>
       <c r="U126" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4900&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7F40&gt;</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
@@ -9126,7 +9048,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>C05906222</t>
+          <t>C62826894</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -9134,12 +9056,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>O=S1(=O)C[C@@H](Cl)[C@H](/N=C/c2ccncc2)C1</t>
+          <t>O=C([O-])c1cccc(Br)c1NC(=O)[C@H]1C[C@H](O)C[NH2+]1</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>O=S1(=O)C[C@@H](Cl)[C@H](/N=C/c2ccncc2)C1</t>
+          <t>O=C([O-])c1cccc(Br)c1NC(=O)[C@H]1C[C@H](O)C[NH2+]1</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -9153,16 +9075,16 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>258.73</v>
+        <v>329.15</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I127" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J127" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K127" t="n">
         <v>2</v>
@@ -9171,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="M127" t="n">
-        <v>59.39</v>
+        <v>106.07</v>
       </c>
       <c r="N127" t="inlineStr"/>
       <c r="O127" t="inlineStr"/>
@@ -9182,7 +9104,7 @@
       <c r="T127" t="inlineStr"/>
       <c r="U127" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD4B30&gt;</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
@@ -9194,7 +9116,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>C63374365</t>
+          <t>C06557156</t>
         </is>
       </c>
       <c r="B128" t="n">
@@ -9202,12 +9124,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)=C1CCN[C@H]([C@@H]3C(=O)N(c4ccc(C)cc4)C(=O)N(c4ccc(C)cc4)[C@@H]3O)[C@H]1[NH+]=2</t>
+          <t>Cn1nc2c(c1-c1nnc([S-])n1N)CCCC2</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>COc1ccc2c(c1)=C1CCN[C@H]([C@@H]3C(=O)N(c4ccc(C)cc4)C(=O)N(c4ccc(C)cc4)[C@@H]3O)[C@H]1[NH+]=2</t>
+          <t>Cn1nc2c(c1-c1nnc([S-])n1N)CCCC2</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -9221,25 +9143,25 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>511.6</v>
+        <v>249.32</v>
       </c>
       <c r="H128" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>5</v>
       </c>
       <c r="J128" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K128" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L128" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M128" t="n">
-        <v>96.08</v>
+        <v>74.55</v>
       </c>
       <c r="N128" t="inlineStr"/>
       <c r="O128" t="inlineStr"/>
@@ -9250,7 +9172,7 @@
       <c r="T128" t="inlineStr"/>
       <c r="U128" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7840&gt;</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
@@ -9262,7 +9184,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>C38576868</t>
+          <t>C40303933</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -9270,12 +9192,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>O=C(c1ccccc1)N1N[C@@H](c2cccnc2)N[C@@H]1[NH2+]CC1=CC2=CC=N[C@@H]2C=C1</t>
+          <t>C[C@H]1COCCN1C(=O)c1sccc1N</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>O=C(c1ccccc1)N1N[C@@H](c2cccnc2)N[C@@H]1[NH2+]CC1=CC2=CC=N[C@@H]2C=C1</t>
+          <t>C[C@H]1COCCN1C(=O)c1sccc1N</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -9289,25 +9211,25 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>399.48</v>
+        <v>226.3</v>
       </c>
       <c r="H129" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J129" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K129" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M129" t="n">
-        <v>86.23</v>
+        <v>55.56</v>
       </c>
       <c r="N129" t="inlineStr"/>
       <c r="O129" t="inlineStr"/>
@@ -9318,7 +9240,7 @@
       <c r="T129" t="inlineStr"/>
       <c r="U129" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5070&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD4740&gt;</t>
         </is>
       </c>
       <c r="V129" t="inlineStr">
@@ -9330,7 +9252,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>C45534277</t>
+          <t>C05906222</t>
         </is>
       </c>
       <c r="B130" t="n">
@@ -9338,12 +9260,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H](CNC(=O)NN[C@]1(C)CCS(=O)(=O)C1)[NH+]1CCCCCC1</t>
+          <t>O=S1(=O)C[C@@H](Cl)[C@H](/N=C/c2ccncc2)C1</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>CC(C)[C@@H](CNC(=O)NN[C@]1(C)CCS(=O)(=O)C1)[NH+]1CCCCCC1</t>
+          <t>O=S1(=O)C[C@@H](Cl)[C@H](/N=C/c2ccncc2)C1</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -9357,25 +9279,25 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>375.56</v>
+        <v>258.73</v>
       </c>
       <c r="H130" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J130" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="K130" t="n">
         <v>2</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130" t="n">
-        <v>91.73999999999999</v>
+        <v>59.39</v>
       </c>
       <c r="N130" t="inlineStr"/>
       <c r="O130" t="inlineStr"/>
@@ -9386,7 +9308,7 @@
       <c r="T130" t="inlineStr"/>
       <c r="U130" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5460&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6030&gt;</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
@@ -9398,7 +9320,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>C11590150</t>
+          <t>C48300035</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -9406,12 +9328,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>CCCCn1c(=O)c(CCC(=O)O[C@@H](C)c2nc3sc(C)c(C)c3c(=O)[nH]2)nc2ccccc21</t>
+          <t>NC(=O)N[C@@H](CC(=O)NCc1ccc(S(N)(=O)=O)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>CCCCn1c(=O)c(CCC(=O)O[C@@H](C)c2nc3sc(C)c(C)c3c(=O)[nH]2)nc2ccccc21</t>
+          <t>NC(=O)N[C@@H](CC(=O)NCc1ccc(S(N)(=O)=O)s1)c1ccccc1</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -9425,25 +9347,25 @@
         </is>
       </c>
       <c r="G131" t="n">
-        <v>480.59</v>
+        <v>382.47</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I131" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J131" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L131" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M131" t="n">
-        <v>106.94</v>
+        <v>144.38</v>
       </c>
       <c r="N131" t="inlineStr"/>
       <c r="O131" t="inlineStr"/>
@@ -9454,7 +9376,7 @@
       <c r="T131" t="inlineStr"/>
       <c r="U131" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B54D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5FC0&gt;</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
@@ -9466,7 +9388,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>CHEMBL368896</t>
+          <t>C20713114</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -9474,12 +9396,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Cn1c(-c2ccccc2)nc2c(-c3ccc(F)cc3)ncnc21</t>
+          <t>O=[N+]([O-])c1ccccc1[C@H]1Nc2ccc(S(=O)(=O)N3CCc4ccccc43)cc2[C@@H]2C=CC[C@@H]12</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>Cn1c(-c2ccccc2)nc2c(-c3ccc(F)cc3)ncnc21</t>
+          <t>O=[N+]([O-])c1ccccc1[C@H]1Nc2ccc(S(=O)(=O)N3CCc4ccccc43)cc2[C@@H]2C=CC[C@@H]12</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -9489,66 +9411,40 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>304.33</v>
+        <v>473.55</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J132" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K132" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="L132" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M132" t="n">
-        <v>43.6</v>
-      </c>
-      <c r="N132" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P132" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q132" t="n">
-        <v>5</v>
-      </c>
-      <c r="R132" t="inlineStr">
-        <is>
-          <t>CHEMBL830657</t>
-        </is>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>Inhibition of human Mitogen activated protein kinase kinase 1 (MEK1) at 30 uM</t>
-        </is>
-      </c>
-      <c r="T132" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>92.55</v>
+      </c>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
       <c r="U132" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5EE0&gt;</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
@@ -9560,7 +9456,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>CHEMBL407373</t>
+          <t>C38576868</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -9568,12 +9464,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
+          <t>O=C(c1ccccc1)N1N[C@@H](c2cccnc2)N[C@@H]1[NH2+]CC1=CC2=CC=N[C@@H]2C=C1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>CCCC(=O)Nc1n[nH]c2ncc(-c3ccccc3F)cc12</t>
+          <t>O=C(c1ccccc1)N1N[C@@H](c2cccnc2)N[C@@H]1[NH2+]CC1=CC2=CC=N[C@@H]2C=C1</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -9583,66 +9479,40 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>298.32</v>
+        <v>399.48</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J133" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K133" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M133" t="n">
-        <v>70.67</v>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P133" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q133" t="n">
-        <v>7</v>
-      </c>
-      <c r="R133" t="inlineStr">
-        <is>
-          <t>CHEMBL734035</t>
-        </is>
-      </c>
-      <c r="S133" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1 in presence of 10 uM ATP</t>
-        </is>
-      </c>
-      <c r="T133" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>86.23</v>
+      </c>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
       <c r="U133" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5E00&gt;</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
@@ -9654,7 +9524,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>CHEMBL4559825</t>
+          <t>C40013602</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -9662,12 +9532,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
+          <t>CCCC[NH+](CCCC)CCCN1C(=O)c2oc3cc(C)c(C)cc3c(=O)c2[C@@H]1c1ccc(SC)cc1</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn(-c3cccc(NC(=O)Nc4cc(C(F)(F)F)cc(C(F)(F)F)c4)c3)cc2-c2ccncc2)cc1Cl</t>
+          <t>CCCC[NH+](CCCC)CCCN1C(=O)c2oc3cc(C)c(C)cc3c(=O)c2[C@@H]1c1ccc(SC)cc1</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -9677,66 +9547,40 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>631.96</v>
+        <v>521.75</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>4</v>
       </c>
       <c r="J134" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K134" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L134" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M134" t="n">
-        <v>81.06999999999999</v>
-      </c>
-      <c r="N134" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O134" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P134" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q134" t="n">
-        <v>-4.12</v>
-      </c>
-      <c r="R134" t="inlineStr">
-        <is>
-          <t>CHEMBL4313428</t>
-        </is>
-      </c>
-      <c r="S134" t="inlineStr">
-        <is>
-          <t>Inhibition of human MEK1 at 10 uM using ERK2 as substrate by [gamma-33P]-ATP assay relative to control</t>
-        </is>
-      </c>
-      <c r="T134" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>54.96</v>
+      </c>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
       <c r="U134" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5A10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6420&gt;</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
@@ -9748,7 +9592,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>CHEMBL388088</t>
+          <t>C45534277</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -9756,12 +9600,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>CCOC(=O)Cn1c(=O)sn(C)c1=O</t>
+          <t>CC(C)[C@@H](CNC(=O)NN[C@]1(C)CCS(=O)(=O)C1)[NH+]1CCCCCC1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>CCOC(=O)Cn1c(=O)sn(C)c1=O</t>
+          <t>CC(C)[C@@H](CNC(=O)NN[C@]1(C)CCS(=O)(=O)C1)[NH+]1CCCCCC1</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -9771,66 +9615,40 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>218.23</v>
+        <v>375.56</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
       </c>
       <c r="J135" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K135" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M135" t="n">
-        <v>70.3</v>
-      </c>
-      <c r="N135" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O135" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P135" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q135" t="n">
-        <v>19</v>
-      </c>
-      <c r="R135" t="inlineStr">
-        <is>
-          <t>CHEMBL920009</t>
-        </is>
-      </c>
-      <c r="S135" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK1K at 10 uM</t>
-        </is>
-      </c>
-      <c r="T135" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>91.73999999999999</v>
+      </c>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
       <c r="U135" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B5D90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5AF0&gt;</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
@@ -9842,7 +9660,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>CHEMBL369622</t>
+          <t>C04222474</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -9850,12 +9668,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>c1ccc(C[n+]2c[nH]c3ncncc32)cc1</t>
+          <t>COCC(=O)Nc1nc2c(s1)C[C@@H]1[C@](C)(CO)[C@H](O)CC[C@@]1(C)[C@@H]2CC(=O)Nc1nccs1</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>c1ccc(C[n+]2c[nH]c3ncncc32)cc1</t>
+          <t>COCC(=O)Nc1nc2c(s1)C[C@H]1[C@@](C)(CC[C@@H](O)[C@@]1(C)CO)[C@@H]2CC(=O)Nc1nccs1</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -9865,66 +9683,40 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>211.25</v>
+        <v>494.64</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I136" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J136" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="K136" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L136" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M136" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="N136" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O136" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P136" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q136" t="n">
-        <v>4</v>
-      </c>
-      <c r="R136" t="inlineStr">
-        <is>
-          <t>CHEMBL830657</t>
-        </is>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>Inhibition of human Mitogen activated protein kinase kinase 1 (MEK1) at 30 uM</t>
-        </is>
-      </c>
-      <c r="T136" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>133.67</v>
+      </c>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
       <c r="U136" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B40B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD58C0&gt;</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
@@ -9936,7 +9728,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>CHEMBL3359125</t>
+          <t>C11590150</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -9944,12 +9736,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Cc1cc(=O)oc2cc(NCCOc3no[n+]([O-])c3S(=O)(=O)c3ccccc3)ccc12</t>
+          <t>CCCCn1c(=O)c(CCC(=O)O[C@@H](C)c2nc3sc(C)c(C)c3c(=O)[nH]2)nc2ccccc21</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>Cc1cc(=O)oc2cc(NCCOc3no[n+]([O-])c3S(=O)(=O)c3ccccc3)ccc12</t>
+          <t>CCCCn1c(=O)c(CCC(=O)O[C@@H](C)c2nc3sc(C)c(C)c3c(=O)[nH]2)nc2ccccc21</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -9959,20 +9751,20 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>443.44</v>
+        <v>480.59</v>
       </c>
       <c r="H137" t="n">
         <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="J137" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K137" t="n">
         <v>4</v>
@@ -9981,44 +9773,18 @@
         <v>4</v>
       </c>
       <c r="M137" t="n">
-        <v>138.58</v>
-      </c>
-      <c r="N137" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O137" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P137" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q137" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="R137" t="inlineStr">
-        <is>
-          <t>CHEMBL3381908</t>
-        </is>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>Inhibition of MEK-1 (unknown origin) at 5 uM after 120 mins by mobility shift assay</t>
-        </is>
-      </c>
-      <c r="T137" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>106.94</v>
+      </c>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
       <c r="U137" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6C70&gt;</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
@@ -10030,7 +9796,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>CHEMBL98178</t>
+          <t>C23555541</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -10038,12 +9804,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccc(S/C(N)=C(C#N)/C(C#N)=C(\N)Sc2ccc(NC(C)=O)cc2)cc1</t>
+          <t>COc1ccc(CSc2nnc(S[C@H](C)C(=O)Nc3cc([N+](=O)[O-])ccc3Cl)s2)cc1</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1ccc(S/C(N)=C(C#N)/C(C#N)=C(\N)Sc2ccc(NC(C)=O)cc2)cc1</t>
+          <t>COc1ccc(CSc2nnc(S[C@H](C)C(=O)Nc3cc([N+](=O)[O-])ccc3Cl)s2)cc1</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -10053,66 +9819,40 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>464.58</v>
+        <v>497.02</v>
       </c>
       <c r="H138" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>8</v>
       </c>
       <c r="J138" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L138" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M138" t="n">
-        <v>157.82</v>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P138" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q138" t="n">
-        <v>0</v>
-      </c>
-      <c r="R138" t="inlineStr">
-        <is>
-          <t>CHEMBL711123</t>
-        </is>
-      </c>
-      <c r="S138" t="inlineStr">
-        <is>
-          <t>Non-competitive inhibition of the dual specificity kinase MEK at the concentration 10 uM</t>
-        </is>
-      </c>
-      <c r="T138" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>107.25</v>
+      </c>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
       <c r="U138" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4190&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6B90&gt;</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
@@ -10124,7 +9864,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>CHEMBL1794059</t>
+          <t>C00706474</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -10132,12 +9872,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc(N/C=C2\C(=O)Nc3ccccc32)c1</t>
+          <t>CC1=C(C(=O)OC2CCCCCC2)[C@@H](c2cccc3ccccc23)NC(=O)N1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1cccc(N/C=C2\C(=O)Nc3ccccc32)c1</t>
+          <t>CC1=C(C(=O)OC2CCCCCC2)[C@@H](c2cccc3ccccc23)NC(=O)N1</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -10147,66 +9887,40 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>315.35</v>
+        <v>378.47</v>
       </c>
       <c r="H139" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I139" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J139" t="n">
         <v>3</v>
       </c>
       <c r="K139" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L139" t="n">
         <v>2</v>
       </c>
       <c r="M139" t="n">
-        <v>101.29</v>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P139" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q139" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="R139" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S139" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T139" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>67.43000000000001</v>
+      </c>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
       <c r="U139" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD63B0&gt;</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
@@ -10218,7 +9932,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>CHEMBL191105</t>
+          <t>C38893897</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -10226,12 +9940,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1c(-c2nonc2N)nc2cnccc21</t>
+          <t>O=C(NCCSCc1cccc(Cl)c1)[C@H]1CCC[NH+](Cc2nc(-c3ccc(F)cc3)no2)C1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>CN(C)CCCn1c(-c2nonc2N)nc2cnccc21</t>
+          <t>O=C(NCCSCc1cccc(Cl)c1)[C@H]1CCC[NH+](Cc2nc(-c3ccc(F)cc3)no2)C1</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -10241,66 +9955,40 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>287.33</v>
+        <v>490.02</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I140" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J140" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="K140" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L140" t="n">
         <v>3</v>
       </c>
       <c r="M140" t="n">
-        <v>98.89</v>
-      </c>
-      <c r="N140" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O140" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P140" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q140" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="R140" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T140" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>72.45999999999999</v>
+      </c>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
       <c r="U140" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B43C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD7D10&gt;</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
@@ -10312,7 +10000,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>CHEMBL220243</t>
+          <t>C34774245</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -10320,12 +10008,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>COC(=O)c1cncc(/C=C/c2c(C)cc(O)cc2C)c1</t>
+          <t>C=CCSc1nc(N2CC[NH+](Cc3ccc(C)cc3C)CC2)c2c(-c3ccccc3)csc2n1</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>COC(=O)c1cncc(/C=C/c2c(C)cc(O)cc2C)c1</t>
+          <t>C=CCSc1nc(N2CC[NH+](Cc3ccc(C)cc3C)CC2)c2c(-c3ccccc3)csc2n1</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -10335,11 +10023,11 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>283.33</v>
+        <v>487.72</v>
       </c>
       <c r="H141" t="n">
         <v>1</v>
@@ -10348,53 +10036,27 @@
         <v>4</v>
       </c>
       <c r="J141" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="K141" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L141" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M141" t="n">
-        <v>59.42</v>
-      </c>
-      <c r="N141" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O141" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P141" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q141" t="n">
-        <v>4.46</v>
-      </c>
-      <c r="R141" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S141" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T141" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>33.46</v>
+      </c>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
       <c r="U141" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD46D0&gt;</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
@@ -10406,7 +10068,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CHEMBL261849</t>
+          <t>C13285055</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -10414,12 +10076,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2ccc(Cc3cnc(N)nc3N)cc2OC)cc1</t>
+          <t>Nc1nc(N)c(-c2ccc(Cl)c(Cl)c2)c(/C=C/C=C/c2ccccc2)n1</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>COc1ccc(COc2ccc(Cc3cnc(N)nc3N)cc2OC)cc1</t>
+          <t>Nc1nc(N)c(-c2ccc(Cl)c(Cl)c2)c(/C=C/C=C/c2ccccc2)n1</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -10429,20 +10091,20 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Train</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>366.42</v>
+        <v>383.28</v>
       </c>
       <c r="H142" t="n">
         <v>2</v>
       </c>
       <c r="I142" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J142" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="K142" t="n">
         <v>3</v>
@@ -10451,44 +10113,18 @@
         <v>3</v>
       </c>
       <c r="M142" t="n">
-        <v>105.51</v>
-      </c>
-      <c r="N142" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O142" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P142" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q142" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="R142" t="inlineStr">
-        <is>
-          <t>CHEMBL1962207</t>
-        </is>
-      </c>
-      <c r="S142" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T142" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>77.81999999999999</v>
+      </c>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
       <c r="U142" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B44A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD5D90&gt;</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
@@ -10500,7 +10136,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>CHEMBL463931</t>
+          <t>C63374365</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -10508,12 +10144,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3ccsc3C(N)=O)c3cc[nH]c3n1)N(C(=O)CN(C)C)CCC2(C)C</t>
+          <t>COc1ccc2c(c1)=C1CCN[C@H]([C@@H]3C(=O)N(c4ccc(C)cc4)C(=O)N(c4ccc(C)cc4)[C@@H]3O)[C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>COc1cc2c(cc1Nc1nc(Nc3ccsc3C(N)=O)c3cc[nH]c3n1)N(C(=O)CN(C)C)CCC2(C)C</t>
+          <t>COc1ccc2c(c1)=C1CCN[C@H]([C@@H]3C(=O)N(c4ccc(C)cc4)C(=O)N(c4ccc(C)cc4)[C@@H]3O)[C@H]1[NH+]=2</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -10523,66 +10159,40 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>External</t>
+          <t>Test</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>548.67</v>
+        <v>511.6</v>
       </c>
       <c r="H143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I143" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J143" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K143" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L143" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M143" t="n">
-        <v>141.5</v>
-      </c>
-      <c r="N143" t="inlineStr">
-        <is>
-          <t>Inhibition</t>
-        </is>
-      </c>
-      <c r="O143" t="inlineStr">
-        <is>
-          <t>'='</t>
-        </is>
-      </c>
-      <c r="P143" t="inlineStr">
-        <is>
-          <t>%</t>
-        </is>
-      </c>
-      <c r="Q143" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="R143" t="inlineStr">
-        <is>
-          <t>CHEMBL1962206</t>
-        </is>
-      </c>
-      <c r="S143" t="inlineStr">
-        <is>
-          <t>GSK_PKIS: MEK1 mean inhibition at 0.1 uM [Nanosyn]</t>
-        </is>
-      </c>
-      <c r="T143" t="inlineStr">
-        <is>
-          <t>single protein format</t>
-        </is>
-      </c>
+        <v>96.08</v>
+      </c>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
       <c r="U143" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x0000022AA33B4510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001A135FD6110&gt;</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
